--- a/results/empty-48-48.map_10t_25i_0h_processed.xlsx
+++ b/results/empty-48-48.map_10t_25i_0h_processed.xlsx
@@ -542,28 +542,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>122.318</v>
+        <v>85.52199999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -595,28 +595,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="C3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="D3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="E3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="F3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="G3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="H3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="I3" t="n">
-        <v>91.904</v>
+        <v>103.904</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,28 +648,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="C4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="D4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="E4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="F4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="G4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="H4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="I4" t="n">
-        <v>101.56</v>
+        <v>124.184</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="C5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="D5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="E5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="F5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="G5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="H5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="I5" t="n">
-        <v>109.834</v>
+        <v>95.108</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>122.388</v>
+        <v>95.34999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -807,28 +807,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="C7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="D7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="E7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="F7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="G7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="H7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="I7" t="n">
-        <v>104.904</v>
+        <v>114.592</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -860,28 +860,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="C8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="D8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="E8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="F8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="G8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="H8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="I8" t="n">
-        <v>101.286</v>
+        <v>115.592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="C9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="D9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="E9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="F9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="G9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="H9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="I9" t="n">
-        <v>101.974</v>
+        <v>107.146</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -966,28 +966,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>133.388</v>
+        <v>99.38799999999999</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1019,28 +1019,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103.63</v>
+        <v>99.974</v>
       </c>
       <c r="C11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>103.63</v>
+        <v>99.97399999999999</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1072,28 +1072,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="C12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="D12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="E12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="F12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="G12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="H12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="I12" t="n">
-        <v>116.7</v>
+        <v>101.866</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1125,28 +1125,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="C13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="D13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="E13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="F13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="G13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="H13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="I13" t="n">
-        <v>115.974</v>
+        <v>103.592</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="C14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="D14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="E14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="F14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="G14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="H14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="I14" t="n">
-        <v>83.834</v>
+        <v>95.28</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1231,28 +1231,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="C15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="D15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="E15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="F15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="G15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="H15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="I15" t="n">
-        <v>105.592</v>
+        <v>102.56</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1284,28 +1284,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="C16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="D16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="E16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="F16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="G16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="H16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="I16" t="n">
-        <v>82.93599999999998</v>
+        <v>112.076</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1337,28 +1337,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="C17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="D17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="E17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="F17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="G17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="H17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="I17" t="n">
-        <v>111.974</v>
+        <v>122.904</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="C18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="D18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="E18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="F18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="G18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="I18" t="n">
-        <v>105.286</v>
+        <v>90.38799999999998</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1443,28 +1443,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="C19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="D19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="E19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="F19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="G19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="H19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="I19" t="n">
-        <v>117.006</v>
+        <v>128.248</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>74.38199999999999</v>
+        <v>93.24799999999999</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1549,28 +1549,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="C21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="D21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="E21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="F21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="G21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="H21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="I21" t="n">
-        <v>122.974</v>
+        <v>107.662</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1602,28 +1602,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="C22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="D22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="E22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="F22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="G22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="H22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="I22" t="n">
-        <v>90.27999999999999</v>
+        <v>104.452</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1655,28 +1655,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="C23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="D23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="E23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="F23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="G23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="H23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="I23" t="n">
-        <v>77.624</v>
+        <v>104.184</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1708,28 +1708,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="C24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="D24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="E24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="F24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="G24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="H24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="I24" t="n">
-        <v>120.108</v>
+        <v>118.452</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1761,28 +1761,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="C25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="E25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="F25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="G25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="I25" t="n">
-        <v>119.146</v>
+        <v>99.62999999999998</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1814,28 +1814,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="C26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="D26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="E26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="F26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="G26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="H26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="I26" t="n">
-        <v>96.52199999999999</v>
+        <v>100.006</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1940,31 +1940,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006999687408097088</v>
+        <v>0.005712483893148601</v>
       </c>
       <c r="E2" t="n">
-        <v>0.418728073942475</v>
+        <v>0.3372575369430706</v>
       </c>
       <c r="F2" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08962557837367058</v>
+        <v>0.05336595419794321</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2452865198720247</v>
+        <v>0.2271963090170175</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04512838635127991</v>
+        <v>0.02810416184365749</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02793434727936983</v>
+        <v>0.02019843854941428</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002898404491133988</v>
+        <v>0.002242250251583755</v>
       </c>
     </row>
     <row r="3">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4533</v>
+        <v>3402</v>
       </c>
       <c r="D3" t="n">
-        <v>1.436579970410094</v>
+        <v>1.022027058643289</v>
       </c>
       <c r="E3" t="n">
-        <v>2.634470022050664</v>
+        <v>1.861873944057152</v>
       </c>
       <c r="F3" t="n">
-        <v>4533</v>
+        <v>3402</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2979037126060575</v>
+        <v>0.1741546188713983</v>
       </c>
       <c r="H3" t="n">
-        <v>1.833522272063419</v>
+        <v>1.357439478510059</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2940660247113556</v>
+        <v>0.1665828903205693</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1752845514565706</v>
+        <v>0.138106063939631</v>
       </c>
       <c r="K3" t="n">
-        <v>0.008690977236256003</v>
+        <v>0.006457771058194339</v>
       </c>
     </row>
     <row r="4">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5145531899761409</v>
+        <v>0.3761482748668641</v>
       </c>
       <c r="E4" t="n">
-        <v>1.112771820975468</v>
+        <v>0.8415298709878698</v>
       </c>
       <c r="F4" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1167821973795071</v>
+        <v>0.06896577554289252</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7667667063651606</v>
+        <v>0.6091976467287168</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05105569842271507</v>
+        <v>0.03194812207948416</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1666036520618945</v>
+        <v>0.1221784842200577</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003024526173248887</v>
+        <v>0.00250200170557946</v>
       </c>
     </row>
     <row r="5">
@@ -2045,31 +2045,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009318116819486022</v>
+        <v>0.009541834937408566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5544797349721193</v>
+        <v>0.6106102459598333</v>
       </c>
       <c r="F5" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1499433694407344</v>
+        <v>0.1504806901793927</v>
       </c>
       <c r="H5" t="n">
-        <v>0.265782960341312</v>
+        <v>0.2678077437449247</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1060059552546591</v>
+        <v>0.1543489441974089</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01875672140158713</v>
+        <v>0.02346034557558596</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00410536618437618</v>
+        <v>0.003891742206178606</v>
       </c>
     </row>
     <row r="6">
@@ -2080,31 +2080,31 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6364</v>
+        <v>6348</v>
       </c>
       <c r="D6" t="n">
-        <v>1.915903583634645</v>
+        <v>1.577520673745312</v>
       </c>
       <c r="E6" t="n">
-        <v>4.011427539982833</v>
+        <v>3.772530355025083</v>
       </c>
       <c r="F6" t="n">
-        <v>6364</v>
+        <v>6348</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6428740957053378</v>
+        <v>0.6592952242353931</v>
       </c>
       <c r="H6" t="n">
-        <v>2.260406725457869</v>
+        <v>1.914813981857151</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6873079317156225</v>
+        <v>0.8067154160235077</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3706631698878482</v>
+        <v>0.3407069279346615</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0141126939561218</v>
+        <v>0.01364031969569623</v>
       </c>
     </row>
     <row r="7">
@@ -2115,31 +2115,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6252938281977549</v>
+        <v>0.5359652386978269</v>
       </c>
       <c r="E7" t="n">
-        <v>1.28455766197294</v>
+        <v>1.227739357971586</v>
       </c>
       <c r="F7" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1927967827068642</v>
+        <v>0.1919447667896748</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7279911519726738</v>
+        <v>0.6407950083957985</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1209224978229031</v>
+        <v>0.1836693366058171</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2276407993631437</v>
+        <v>0.1953873945167288</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004378308192826807</v>
+        <v>0.004537163418717682</v>
       </c>
     </row>
     <row r="8">
@@ -2150,31 +2150,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="D8" t="n">
-        <v>1.617473955499008</v>
+        <v>1.003553659073077</v>
       </c>
       <c r="E8" t="n">
-        <v>2.411916795070283</v>
+        <v>1.624784794985317</v>
       </c>
       <c r="F8" t="n">
-        <v>1581</v>
+        <v>1223</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1197373940376565</v>
+        <v>0.1988164765061811</v>
       </c>
       <c r="H8" t="n">
-        <v>1.699793519917876</v>
+        <v>1.064223595545627</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05367986334022135</v>
+        <v>0.03265085176099092</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5264880590839311</v>
+        <v>0.3194471234455705</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003183676744811237</v>
+        <v>0.00252124760299921</v>
       </c>
     </row>
     <row r="9">
@@ -2185,11 +2185,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21304</v>
+        <v>21077</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>26.25036615715362</v>
+        <v>25.96017615601886</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2210,31 +2210,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005048261024057865</v>
+        <v>0.007735751918517053</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1779957469552755</v>
+        <v>0.2263711839914322</v>
       </c>
       <c r="F10" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05708318261895329</v>
+        <v>0.07395007438026369</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05054026807192713</v>
+        <v>0.07511000253725797</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03761040198151022</v>
+        <v>0.04004895477555692</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02514004067052156</v>
+        <v>0.02547971671447158</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002006279886700213</v>
+        <v>0.003008354571647942</v>
       </c>
     </row>
     <row r="11">
@@ -2245,31 +2245,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3218</v>
+        <v>4300</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9541844070190564</v>
+        <v>1.308555747498758</v>
       </c>
       <c r="E11" t="n">
-        <v>1.701892468030564</v>
+        <v>2.150420421967283</v>
       </c>
       <c r="F11" t="n">
-        <v>3218</v>
+        <v>4300</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1928812346886843</v>
+        <v>0.2243438580771908</v>
       </c>
       <c r="H11" t="n">
-        <v>1.111076140427031</v>
+        <v>1.513970220927149</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1890918154967949</v>
+        <v>0.2263168670469895</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1851526271784678</v>
+        <v>0.1531571495579556</v>
       </c>
       <c r="K11" t="n">
-        <v>0.006028248579241335</v>
+        <v>0.007986864540725946</v>
       </c>
     </row>
     <row r="12">
@@ -2280,31 +2280,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3229517011204734</v>
+        <v>0.5056587214348838</v>
       </c>
       <c r="E12" t="n">
-        <v>0.649595626979135</v>
+        <v>0.8744173899758607</v>
       </c>
       <c r="F12" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0711119492771104</v>
+        <v>0.09796094673220068</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3793908250518143</v>
+        <v>0.587869000970386</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04395589244086295</v>
+        <v>0.0454868875676766</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1469473135657609</v>
+        <v>0.130564555642195</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002088060602545738</v>
+        <v>0.003126410534605384</v>
       </c>
     </row>
     <row r="13">
@@ -2315,31 +2315,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1515</v>
+        <v>2674</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008989535737782717</v>
+        <v>0.01263609726447612</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3320662780897692</v>
+        <v>0.5909428710583597</v>
       </c>
       <c r="F13" t="n">
-        <v>1515</v>
+        <v>2674</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1174034953583032</v>
+        <v>0.2103115966310725</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07613456423860043</v>
+        <v>0.1311138538876548</v>
       </c>
       <c r="I13" t="n">
-        <v>0.106042361469008</v>
+        <v>0.1990127142053097</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02139939519111067</v>
+        <v>0.03049566585104913</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003169281408190727</v>
+        <v>0.005326655460521579</v>
       </c>
     </row>
     <row r="14">
@@ -2350,31 +2350,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5804</v>
+        <v>8416</v>
       </c>
       <c r="D14" t="n">
-        <v>1.237112128757872</v>
+        <v>2.397600714699365</v>
       </c>
       <c r="E14" t="n">
-        <v>3.346420363057405</v>
+        <v>5.189775217906572</v>
       </c>
       <c r="F14" t="n">
-        <v>5804</v>
+        <v>8416</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4914640741189942</v>
+        <v>0.7172291610622779</v>
       </c>
       <c r="H14" t="n">
-        <v>1.654982702457346</v>
+        <v>2.859141516848467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7536088350461796</v>
+        <v>1.168941884883679</v>
       </c>
       <c r="J14" t="n">
-        <v>0.400074431556277</v>
+        <v>0.3772266339510679</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01272561249788851</v>
+        <v>0.01788654073607177</v>
       </c>
     </row>
     <row r="15">
@@ -2385,31 +2385,31 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1515</v>
+        <v>2674</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3853447766741738</v>
+        <v>0.7550530993612483</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9643123969435692</v>
+        <v>1.640662977006286</v>
       </c>
       <c r="F15" t="n">
-        <v>1515</v>
+        <v>2674</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1553441481664777</v>
+        <v>0.2704922120319679</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4688240032410249</v>
+        <v>0.8996411265106872</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1233405207749456</v>
+        <v>0.2356214518658817</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2048685828922316</v>
+        <v>0.2134059116942808</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003336284076794982</v>
+        <v>0.00570953160058707</v>
       </c>
     </row>
     <row r="16">
@@ -2420,31 +2420,31 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9663743595592678</v>
+        <v>1.49161988357082</v>
       </c>
       <c r="E16" t="n">
-        <v>1.562143840943463</v>
+        <v>2.143420671927743</v>
       </c>
       <c r="F16" t="n">
-        <v>1129</v>
+        <v>1705</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0737984508741647</v>
+        <v>0.09809397999197245</v>
       </c>
       <c r="H16" t="n">
-        <v>1.023181190248579</v>
+        <v>1.575629045837559</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04472022014670074</v>
+        <v>0.04678739979863167</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4117067905608565</v>
+        <v>0.409571566269733</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00227056781295687</v>
+        <v>0.003454589052125812</v>
       </c>
     </row>
     <row r="17">
@@ -2455,11 +2455,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19938</v>
+        <v>19784</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>26.24905953707639</v>
+        <v>26.02835806668736</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09626847016625106</v>
+        <v>0.007384525495581329</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3017483650473878</v>
+        <v>0.2490745870163664</v>
       </c>
       <c r="F18" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06747730576898903</v>
+        <v>0.0893039662623778</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1617247104877606</v>
+        <v>0.07606536895036697</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03607591753825545</v>
+        <v>0.04592161532491446</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02523940871469676</v>
+        <v>0.025944460532628</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002962347236461937</v>
+        <v>0.002995098242536187</v>
       </c>
     </row>
     <row r="19">
@@ -2515,31 +2515,31 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3908</v>
+        <v>4484</v>
       </c>
       <c r="D19" t="n">
-        <v>1.117681534495205</v>
+        <v>1.377171955537051</v>
       </c>
       <c r="E19" t="n">
-        <v>1.889250893960707</v>
+        <v>2.369367931038141</v>
       </c>
       <c r="F19" t="n">
-        <v>3908</v>
+        <v>4484</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2069649993209168</v>
+        <v>0.2897565856110305</v>
       </c>
       <c r="H19" t="n">
-        <v>1.305024436791427</v>
+        <v>1.599570866092108</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1898264572955668</v>
+        <v>0.2818739380454645</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1590520365862176</v>
+        <v>0.1639615923631936</v>
       </c>
       <c r="K19" t="n">
-        <v>0.007285708095878363</v>
+        <v>0.008300231653265655</v>
       </c>
     </row>
     <row r="20">
@@ -2550,31 +2550,31 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3926351317204535</v>
+        <v>0.5021786843426526</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7471397910267115</v>
+        <v>0.9292111520189792</v>
       </c>
       <c r="F20" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08578153315465897</v>
+        <v>0.1162531194277108</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4721177504397929</v>
+        <v>0.5863736361498013</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03988204000052065</v>
+        <v>0.05049819231498986</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1373982010409236</v>
+        <v>0.1634025686653331</v>
       </c>
       <c r="K20" t="n">
-        <v>0.003113575279712677</v>
+        <v>0.00319558335468173</v>
       </c>
     </row>
     <row r="21">
@@ -2585,31 +2585,31 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3182</v>
+        <v>2352</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01430167246144265</v>
+        <v>0.0107015329413116</v>
       </c>
       <c r="E21" t="n">
-        <v>0.795795249985531</v>
+        <v>0.5001301679294556</v>
       </c>
       <c r="F21" t="n">
-        <v>3182</v>
+        <v>2352</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2484632061095908</v>
+        <v>0.1824459068011492</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1538929116213694</v>
+        <v>0.1125212733168155</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3252424735110253</v>
+        <v>0.1648072026437148</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04466399142984301</v>
+        <v>0.02316584310028702</v>
       </c>
       <c r="K21" t="n">
-        <v>0.006557036656886339</v>
+        <v>0.004657944897189736</v>
       </c>
     </row>
     <row r="22">
@@ -2620,31 +2620,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10337</v>
+        <v>7604</v>
       </c>
       <c r="D22" t="n">
-        <v>1.845606184215285</v>
+        <v>2.013619858771563</v>
       </c>
       <c r="E22" t="n">
-        <v>5.43418657395523</v>
+        <v>4.473924753023311</v>
       </c>
       <c r="F22" t="n">
-        <v>10337</v>
+        <v>7604</v>
       </c>
       <c r="G22" t="n">
-        <v>0.876232746639289</v>
+        <v>0.6443339090328664</v>
       </c>
       <c r="H22" t="n">
-        <v>2.415824690368026</v>
+        <v>2.426465879427269</v>
       </c>
       <c r="I22" t="n">
-        <v>1.634906026069075</v>
+        <v>0.9448644398944452</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4248975740047172</v>
+        <v>0.3953518311027437</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02277001913171262</v>
+        <v>0.01785132731311023</v>
       </c>
     </row>
     <row r="23">
@@ -2655,31 +2655,31 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3182</v>
+        <v>2352</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6357111239340156</v>
+        <v>0.643095459905453</v>
       </c>
       <c r="E23" t="n">
-        <v>1.761552773998119</v>
+        <v>1.456888727028854</v>
       </c>
       <c r="F23" t="n">
-        <v>3182</v>
+        <v>2352</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3205961006460711</v>
+        <v>0.2350315203657374</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8049123394303024</v>
+        <v>0.7684897301951423</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3836249251617119</v>
+        <v>0.1922143596457317</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2273690371075645</v>
+        <v>0.2423075300175697</v>
       </c>
       <c r="K23" t="n">
-        <v>0.006818465888500214</v>
+        <v>0.004965991713106632</v>
       </c>
     </row>
     <row r="24">
@@ -2690,31 +2690,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="D24" t="n">
-        <v>1.050651633529924</v>
+        <v>1.515374311245978</v>
       </c>
       <c r="E24" t="n">
-        <v>1.672192878904752</v>
+        <v>2.317979905987158</v>
       </c>
       <c r="F24" t="n">
-        <v>1679</v>
+        <v>1722</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08953276602551341</v>
+        <v>0.1198160776402801</v>
       </c>
       <c r="H24" t="n">
-        <v>1.130428442615084</v>
+        <v>1.603452411014587</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04076039488427341</v>
+        <v>0.05239914509002119</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3989557140739635</v>
+        <v>0.5287125782342628</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003284706501290202</v>
+        <v>0.003433226607739925</v>
       </c>
     </row>
     <row r="25">
@@ -2725,11 +2725,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20353</v>
+        <v>22347</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>24.95406819402706</v>
+        <v>26.02196094405372</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2750,31 +2750,31 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="D26" t="n">
-        <v>0.006583258043974638</v>
+        <v>0.006217140355147421</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2148701850092039</v>
+        <v>0.3014154119882733</v>
       </c>
       <c r="F26" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07176352944225073</v>
+        <v>0.06245237006805837</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06842737062834203</v>
+        <v>0.06176710384897888</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03865834907628596</v>
+        <v>0.03514864039607346</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02548715774901211</v>
+        <v>0.1324049601098523</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002782190451398492</v>
+        <v>0.002487685414962471</v>
       </c>
     </row>
     <row r="27">
@@ -2785,31 +2785,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4054</v>
+        <v>3663</v>
       </c>
       <c r="D27" t="n">
-        <v>1.168831442948431</v>
+        <v>1.097723567974754</v>
       </c>
       <c r="E27" t="n">
-        <v>2.027932835975662</v>
+        <v>1.834447077009827</v>
       </c>
       <c r="F27" t="n">
-        <v>4054</v>
+        <v>3663</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2435634329449385</v>
+        <v>0.1931812016991898</v>
       </c>
       <c r="H27" t="n">
-        <v>1.365417389431968</v>
+        <v>1.271791520295665</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2435262434883043</v>
+        <v>0.1924570413539186</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1458746120333672</v>
+        <v>0.1496926780091599</v>
       </c>
       <c r="K27" t="n">
-        <v>0.007593816611915827</v>
+        <v>0.00679643836338073</v>
       </c>
     </row>
     <row r="28">
@@ -2820,31 +2820,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3963437266647816</v>
+        <v>0.4208232682431117</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7517773399595171</v>
+        <v>0.7543918900191784</v>
       </c>
       <c r="F28" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09391649987082928</v>
+        <v>0.08115245180670172</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4719482256332412</v>
+        <v>0.4897267118794844</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04257376398891211</v>
+        <v>0.03850589133799076</v>
       </c>
       <c r="J28" t="n">
-        <v>0.132139932946302</v>
+        <v>0.1346640445990488</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002912684460170567</v>
+        <v>0.002605523448437452</v>
       </c>
     </row>
     <row r="29">
@@ -2855,31 +2855,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2751</v>
+        <v>2191</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01251237594988197</v>
+        <v>0.01090408908203244</v>
       </c>
       <c r="E29" t="n">
-        <v>0.675893762963824</v>
+        <v>0.483989460975863</v>
       </c>
       <c r="F29" t="n">
-        <v>2751</v>
+        <v>2191</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2149549290770665</v>
+        <v>0.1708697766298428</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1374582472490147</v>
+        <v>0.1068953386275098</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2667820948408917</v>
+        <v>0.164138464955613</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03613407537341118</v>
+        <v>0.02581891207955778</v>
       </c>
       <c r="K29" t="n">
-        <v>0.005872414214536548</v>
+        <v>0.004304717876948416</v>
       </c>
     </row>
     <row r="30">
@@ -2890,31 +2890,31 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9331</v>
+        <v>7341</v>
       </c>
       <c r="D30" t="n">
-        <v>1.568883342784829</v>
+        <v>1.984800482052378</v>
       </c>
       <c r="E30" t="n">
-        <v>4.751843041973189</v>
+        <v>4.522528224042617</v>
       </c>
       <c r="F30" t="n">
-        <v>9331</v>
+        <v>7341</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7779622840462252</v>
+        <v>0.7463117454899475</v>
       </c>
       <c r="H30" t="n">
-        <v>2.072059707832523</v>
+        <v>2.381704840343446</v>
       </c>
       <c r="I30" t="n">
-        <v>1.452477285871282</v>
+        <v>0.9658509828150272</v>
       </c>
       <c r="J30" t="n">
-        <v>0.376362586626783</v>
+        <v>0.369572677067481</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02005316747818142</v>
+        <v>0.01527995790820569</v>
       </c>
     </row>
     <row r="31">
@@ -2925,31 +2925,31 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2751</v>
+        <v>2191</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4870944905560464</v>
+        <v>0.6336345135932788</v>
       </c>
       <c r="E31" t="n">
-        <v>1.441981510957703</v>
+        <v>1.398427071981132</v>
       </c>
       <c r="F31" t="n">
-        <v>2751</v>
+        <v>2191</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2743489218410105</v>
+        <v>0.2219740088330582</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6331606537569314</v>
+        <v>0.7510135170305148</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3148621050640941</v>
+        <v>0.195575813180767</v>
       </c>
       <c r="J31" t="n">
-        <v>0.198315755231306</v>
+        <v>0.2119251488475129</v>
       </c>
       <c r="K31" t="n">
-        <v>0.005872458918020129</v>
+        <v>0.005130811245180666</v>
       </c>
     </row>
     <row r="32">
@@ -2960,31 +2960,31 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="D32" t="n">
-        <v>1.093350209062919</v>
+        <v>1.144785256125033</v>
       </c>
       <c r="E32" t="n">
-        <v>1.758763359044679</v>
+        <v>1.711803626036271</v>
       </c>
       <c r="F32" t="n">
-        <v>1582</v>
+        <v>1402</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09476051211822778</v>
+        <v>0.08266127563547343</v>
       </c>
       <c r="H32" t="n">
-        <v>1.170355337439105</v>
+        <v>1.214145969017409</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04353760194499046</v>
+        <v>0.03952865221071988</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4383914194768295</v>
+        <v>0.3644997510127723</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00304690538905561</v>
+        <v>0.002842062618583441</v>
       </c>
     </row>
     <row r="33">
@@ -2995,11 +2995,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21213</v>
+        <v>19547</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>25.38763896899763</v>
+        <v>25.89197546709329</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -3020,31 +3020,31 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="D34" t="n">
-        <v>0.007572421105578542</v>
+        <v>0.007021144381724298</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2536654539871961</v>
+        <v>0.1990984069416299</v>
       </c>
       <c r="F34" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08939561550505459</v>
+        <v>0.06157974875532091</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08060422900598496</v>
+        <v>0.06853964377660304</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04496211849618703</v>
+        <v>0.03442467236891389</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02617947268299758</v>
+        <v>0.02376934664789587</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003320443094708025</v>
+        <v>0.002797235734760761</v>
       </c>
     </row>
     <row r="35">
@@ -3055,31 +3055,31 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4638</v>
+        <v>3855</v>
       </c>
       <c r="D35" t="n">
-        <v>1.419168976950459</v>
+        <v>1.062452755635604</v>
       </c>
       <c r="E35" t="n">
-        <v>2.41539343399927</v>
+        <v>1.816864170017652</v>
       </c>
       <c r="F35" t="n">
-        <v>4638</v>
+        <v>3855</v>
       </c>
       <c r="G35" t="n">
-        <v>0.283944332622923</v>
+        <v>0.1934751920634881</v>
       </c>
       <c r="H35" t="n">
-        <v>1.6488142645685</v>
+        <v>1.244633381138556</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2625663038343191</v>
+        <v>0.1900116855977103</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1855797101743519</v>
+        <v>0.1601944577414542</v>
       </c>
       <c r="K35" t="n">
-        <v>0.008922331966459751</v>
+        <v>0.007086528581567109</v>
       </c>
     </row>
     <row r="36">
@@ -3090,31 +3090,31 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="D36" t="n">
-        <v>0.493947018054314</v>
+        <v>0.3916331537766382</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9208223700989038</v>
+        <v>0.7331604220671579</v>
       </c>
       <c r="F36" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1141476910561323</v>
+        <v>0.07914005510974675</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5834659649990499</v>
+        <v>0.4674131525680423</v>
       </c>
       <c r="I36" t="n">
-        <v>0.050399926956743</v>
+        <v>0.0393695121165365</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1594262269791216</v>
+        <v>0.13568673026748</v>
       </c>
       <c r="K36" t="n">
-        <v>0.003483089385554194</v>
+        <v>0.00293075677473098</v>
       </c>
     </row>
     <row r="37">
@@ -3125,31 +3125,31 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2971</v>
+        <v>3329</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01379527209792286</v>
+        <v>0.01585536007769406</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7646850550081581</v>
+        <v>0.914509178022854</v>
       </c>
       <c r="F37" t="n">
-        <v>2971</v>
+        <v>3329</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3289932495681569</v>
+        <v>0.2627693536924198</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1444319152506068</v>
+        <v>0.1631188624305651</v>
       </c>
       <c r="I37" t="n">
-        <v>0.237664743559435</v>
+        <v>0.4113662446616217</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03164864482823759</v>
+        <v>0.05201099219266325</v>
       </c>
       <c r="K37" t="n">
-        <v>0.006255611544474959</v>
+        <v>0.006763326120562851</v>
       </c>
     </row>
     <row r="38">
@@ -3160,31 +3160,31 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9568</v>
+        <v>11162</v>
       </c>
       <c r="D38" t="n">
-        <v>2.120931472280063</v>
+        <v>2.037557592266239</v>
       </c>
       <c r="E38" t="n">
-        <v>5.279648235999048</v>
+        <v>6.341657609096728</v>
       </c>
       <c r="F38" t="n">
-        <v>9568</v>
+        <v>11162</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8061105620581657</v>
+        <v>1.121788529329933</v>
       </c>
       <c r="H38" t="n">
-        <v>2.641636732849292</v>
+        <v>2.646267707808875</v>
       </c>
       <c r="I38" t="n">
-        <v>1.325747721013613</v>
+        <v>2.003340334282257</v>
       </c>
       <c r="J38" t="n">
-        <v>0.4309147957246751</v>
+        <v>0.48021401965525</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02082362351939082</v>
+        <v>0.02384295791853219</v>
       </c>
     </row>
     <row r="39">
@@ -3195,31 +3195,31 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2971</v>
+        <v>3329</v>
       </c>
       <c r="D39" t="n">
-        <v>0.663901160354726</v>
+        <v>0.6154467259766534</v>
       </c>
       <c r="E39" t="n">
-        <v>1.649569913977757</v>
+        <v>1.893582061980851</v>
       </c>
       <c r="F39" t="n">
-        <v>2971</v>
+        <v>3329</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2979245126480237</v>
+        <v>0.3373016675468534</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8220889919903129</v>
+        <v>0.7973146082367748</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2791080719325691</v>
+        <v>0.4983002648223191</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2272259766468778</v>
+        <v>0.2332296622917056</v>
       </c>
       <c r="K39" t="n">
-        <v>0.006513533764518797</v>
+        <v>0.007606228231452405</v>
       </c>
     </row>
     <row r="40">
@@ -3230,31 +3230,31 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="D40" t="n">
-        <v>1.464120040996931</v>
+        <v>0.986449065268971</v>
       </c>
       <c r="E40" t="n">
-        <v>2.196935417945497</v>
+        <v>1.554540467914194</v>
       </c>
       <c r="F40" t="n">
-        <v>1863</v>
+        <v>1596</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1168788732029498</v>
+        <v>0.08079212333541363</v>
       </c>
       <c r="H40" t="n">
-        <v>1.555094273295254</v>
+        <v>1.062417900306173</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05097742134239525</v>
+        <v>0.03998874104581773</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4598697180626914</v>
+        <v>0.359310461091809</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003682001028209925</v>
+        <v>0.003066602163016796</v>
       </c>
     </row>
     <row r="41">
@@ -3265,11 +3265,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21067</v>
+        <v>19572</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>25.13672106992453</v>
+        <v>25.41323394200299</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3290,31 +3290,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006892425939440727</v>
+        <v>0.007272930117323995</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2244667490012944</v>
+        <v>0.2463787070009857</v>
       </c>
       <c r="F42" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07492958614602685</v>
+        <v>0.08436048962175846</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06866347335744649</v>
+        <v>0.07403846376109868</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04226236953400075</v>
+        <v>0.04547891416586936</v>
       </c>
       <c r="J42" t="n">
-        <v>0.02784493274521083</v>
+        <v>0.03109237703029066</v>
       </c>
       <c r="K42" t="n">
-        <v>0.003015748923644423</v>
+        <v>0.002926166285760701</v>
       </c>
     </row>
     <row r="43">
@@ -3325,31 +3325,31 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4281</v>
+        <v>4107</v>
       </c>
       <c r="D43" t="n">
-        <v>1.311823545140214</v>
+        <v>1.264120195060968</v>
       </c>
       <c r="E43" t="n">
-        <v>2.220056768041104</v>
+        <v>2.142005790956318</v>
       </c>
       <c r="F43" t="n">
-        <v>4281</v>
+        <v>4107</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2434339096071199</v>
+        <v>0.2498467966215685</v>
       </c>
       <c r="H43" t="n">
-        <v>1.519163334509358</v>
+        <v>1.463458506623283</v>
       </c>
       <c r="I43" t="n">
-        <v>0.250403905636631</v>
+        <v>0.2289542242651805</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1754258795408532</v>
+        <v>0.1681642225012183</v>
       </c>
       <c r="K43" t="n">
-        <v>0.008203999255783856</v>
+        <v>0.008062489330768585</v>
       </c>
     </row>
     <row r="44">
@@ -3360,31 +3360,31 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4867914642672986</v>
+        <v>0.4783089018892497</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8845063589978963</v>
+        <v>0.9041130800032988</v>
       </c>
       <c r="F44" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09625690232496709</v>
+        <v>0.1087231329875067</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5622992865974084</v>
+        <v>0.560771421995014</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04617580759804696</v>
+        <v>0.05189972429070622</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1682383799925447</v>
+        <v>0.17045529326424</v>
       </c>
       <c r="K44" t="n">
-        <v>0.003229323890991509</v>
+        <v>0.003036830574274063</v>
       </c>
     </row>
     <row r="45">
@@ -3395,31 +3395,31 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2117</v>
+        <v>2250</v>
       </c>
       <c r="D45" t="n">
-        <v>0.009929434163495898</v>
+        <v>0.01047950237989426</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4357090899720788</v>
+        <v>0.4679168690927327</v>
       </c>
       <c r="F45" t="n">
-        <v>2117</v>
+        <v>2250</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1630482904147357</v>
+        <v>0.1763390506384894</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1028153438819572</v>
+        <v>0.1091310053598136</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1293747802264988</v>
+        <v>0.1400392781943083</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02505852153990418</v>
+        <v>0.02575922315008938</v>
       </c>
       <c r="K45" t="n">
-        <v>0.004357102559879422</v>
+        <v>0.004501305287703872</v>
       </c>
     </row>
     <row r="46">
@@ -3430,31 +3430,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7194</v>
+        <v>7265</v>
       </c>
       <c r="D46" t="n">
-        <v>2.165338145452552</v>
+        <v>1.877444520243444</v>
       </c>
       <c r="E46" t="n">
-        <v>4.556498097954318</v>
+        <v>4.224673659075052</v>
       </c>
       <c r="F46" t="n">
-        <v>7194</v>
+        <v>7265</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6120098937535658</v>
+        <v>0.6166652196552604</v>
       </c>
       <c r="H46" t="n">
-        <v>2.557991891284473</v>
+        <v>2.271862611989491</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8988169817021117</v>
+        <v>0.8712721789488569</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4307040220592171</v>
+        <v>0.4050248290877789</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01604767702519894</v>
+        <v>0.01691274892073125</v>
       </c>
     </row>
     <row r="47">
@@ -3465,31 +3465,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2117</v>
+        <v>2250</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6580965494504198</v>
+        <v>0.6152523693162948</v>
       </c>
       <c r="E47" t="n">
-        <v>1.40238590107765</v>
+        <v>1.474369653966278</v>
       </c>
       <c r="F47" t="n">
-        <v>2117</v>
+        <v>2250</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2124067520489916</v>
+        <v>0.3260662766406313</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7719689712394029</v>
+        <v>0.7363627729937434</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1505179231753573</v>
+        <v>0.1623861885163933</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2508638445287943</v>
+        <v>0.2312941031996161</v>
       </c>
       <c r="K47" t="n">
-        <v>0.004653119947761297</v>
+        <v>0.005195405567064881</v>
       </c>
     </row>
     <row r="48">
@@ -3500,31 +3500,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="D48" t="n">
-        <v>1.519783855532296</v>
+        <v>1.436204684199765</v>
       </c>
       <c r="E48" t="n">
-        <v>2.265990103012882</v>
+        <v>2.290367561974563</v>
       </c>
       <c r="F48" t="n">
-        <v>1531</v>
+        <v>1662</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1002408133354038</v>
+        <v>0.1108816700289026</v>
       </c>
       <c r="H48" t="n">
-        <v>1.598042462370358</v>
+        <v>1.520083602052182</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04804697399958968</v>
+        <v>0.05330326501280069</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5077721412526444</v>
+        <v>0.5931146484799683</v>
       </c>
       <c r="K48" t="n">
-        <v>0.003116910229437053</v>
+        <v>0.003367763594724238</v>
       </c>
     </row>
     <row r="49">
@@ -3535,11 +3535,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19310</v>
+        <v>21761</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>25.51795300305821</v>
+        <v>26.06398050184362</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -3560,31 +3560,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006315045058727264</v>
+        <v>0.00843781849835068</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1959002231014892</v>
+        <v>0.2368911849334836</v>
       </c>
       <c r="F50" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="G50" t="n">
-        <v>0.06358851375989616</v>
+        <v>0.07673982798587531</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06356628809589893</v>
+        <v>0.08506651129573584</v>
       </c>
       <c r="I50" t="n">
-        <v>0.03586162673309445</v>
+        <v>0.03785361628979445</v>
       </c>
       <c r="J50" t="n">
-        <v>0.02304403251037002</v>
+        <v>0.02348408044781536</v>
       </c>
       <c r="K50" t="n">
-        <v>0.00261028204113245</v>
+        <v>0.003577955765649676</v>
       </c>
     </row>
     <row r="51">
@@ -3595,31 +3595,31 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3897</v>
+        <v>4640</v>
       </c>
       <c r="D51" t="n">
-        <v>1.164708627271466</v>
+        <v>1.369877153891139</v>
       </c>
       <c r="E51" t="n">
-        <v>1.95162866008468</v>
+        <v>2.161628964939155</v>
       </c>
       <c r="F51" t="n">
-        <v>3897</v>
+        <v>4640</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2021886138245463</v>
+        <v>0.2088554981164634</v>
       </c>
       <c r="H51" t="n">
-        <v>1.351906664087437</v>
+        <v>1.589399922871962</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2075258533004671</v>
+        <v>0.1979217601474375</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1614862257847562</v>
+        <v>0.1306787534849718</v>
       </c>
       <c r="K51" t="n">
-        <v>0.007315756054595113</v>
+        <v>0.008591168560087681</v>
       </c>
     </row>
     <row r="52">
@@ -3630,31 +3630,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4027573795756325</v>
+        <v>0.5201861526584253</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8596164569025859</v>
+        <v>0.893391193007119</v>
       </c>
       <c r="F52" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08196372154634446</v>
+        <v>0.0958564099855721</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4738341211341321</v>
+        <v>0.6146957074524835</v>
       </c>
       <c r="I52" t="n">
-        <v>0.04040588869247586</v>
+        <v>0.04075748438481241</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2527855059597641</v>
+        <v>0.1273221025476232</v>
       </c>
       <c r="K52" t="n">
-        <v>0.002782031777314842</v>
+        <v>0.003762435517273843</v>
       </c>
     </row>
     <row r="53">
@@ -3665,31 +3665,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2517</v>
+        <v>4383</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01212206506170332</v>
+        <v>0.01914182724431157</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6491095810197294</v>
+        <v>1.090234900009818</v>
       </c>
       <c r="F53" t="n">
-        <v>2517</v>
+        <v>4383</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2020083629759029</v>
+        <v>0.3418586021289229</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1250261772656813</v>
+        <v>0.2097358796745539</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2628136883722618</v>
+        <v>0.4482664804672822</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04056134540587664</v>
+        <v>0.05764656863175333</v>
       </c>
       <c r="K53" t="n">
-        <v>0.005288156447932124</v>
+        <v>0.008551924722269177</v>
       </c>
     </row>
     <row r="54">
@@ -3700,31 +3700,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8382</v>
+        <v>12536</v>
       </c>
       <c r="D54" t="n">
-        <v>1.753812730894424</v>
+        <v>2.819662149413489</v>
       </c>
       <c r="E54" t="n">
-        <v>4.776970718055964</v>
+        <v>7.064886017004028</v>
       </c>
       <c r="F54" t="n">
-        <v>8382</v>
+        <v>12536</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7012788638239726</v>
+        <v>1.049961598590016</v>
       </c>
       <c r="H54" t="n">
-        <v>2.204649114049971</v>
+        <v>3.499852951965295</v>
       </c>
       <c r="I54" t="n">
-        <v>1.288650442962535</v>
+        <v>2.012827122700401</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5158278837334365</v>
+        <v>0.397446335060522</v>
       </c>
       <c r="K54" t="n">
-        <v>0.01841101620811969</v>
+        <v>0.02964180847629905</v>
       </c>
     </row>
     <row r="55">
@@ -3735,31 +3735,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2517</v>
+        <v>4383</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5523565305629745</v>
+        <v>0.9070557160302997</v>
       </c>
       <c r="E55" t="n">
-        <v>1.494769218959846</v>
+        <v>2.366023439913988</v>
       </c>
       <c r="F55" t="n">
-        <v>2517</v>
+        <v>4383</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2532703892793506</v>
+        <v>0.4412085589719936</v>
       </c>
       <c r="H55" t="n">
-        <v>0.688635025639087</v>
+        <v>1.134758786181919</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3121922160498798</v>
+        <v>0.5310345680918545</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2207480358192697</v>
+        <v>0.2230145364301279</v>
       </c>
       <c r="K55" t="n">
-        <v>0.005628841347061098</v>
+        <v>0.01034212717786431</v>
       </c>
     </row>
     <row r="56">
@@ -3770,31 +3770,31 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="D56" t="n">
-        <v>1.060557991848327</v>
+        <v>1.2242254227167</v>
       </c>
       <c r="E56" t="n">
-        <v>1.637802261975594</v>
+        <v>1.745048234937713</v>
       </c>
       <c r="F56" t="n">
-        <v>1476</v>
+        <v>2039</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08396084629930556</v>
+        <v>0.09997074620332569</v>
       </c>
       <c r="H56" t="n">
-        <v>1.13271988555789</v>
+        <v>1.320016991579905</v>
       </c>
       <c r="I56" t="n">
-        <v>0.04143333388492465</v>
+        <v>0.04173257539514452</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3685109775979072</v>
+        <v>0.2679273774847388</v>
       </c>
       <c r="K56" t="n">
-        <v>0.002947538159787655</v>
+        <v>0.003970300313085318</v>
       </c>
     </row>
     <row r="57">
@@ -3805,11 +3805,11 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>21929</v>
+        <v>21848</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>25.07572242734022</v>
+        <v>25.58779821335338</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -3830,31 +3830,31 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.006481497548520565</v>
+        <v>0.008690090733580291</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2075833650305867</v>
+        <v>0.3344499149825424</v>
       </c>
       <c r="F58" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="G58" t="n">
-        <v>0.06621337484102696</v>
+        <v>0.07193929189816117</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0672500889049843</v>
+        <v>0.07323867944069207</v>
       </c>
       <c r="I58" t="n">
-        <v>0.03910002531483769</v>
+        <v>0.03762729268055409</v>
       </c>
       <c r="J58" t="n">
-        <v>0.02487449266482145</v>
+        <v>0.1404072444420308</v>
       </c>
       <c r="K58" t="n">
-        <v>0.002691137488000095</v>
+        <v>0.002872434328310192</v>
       </c>
     </row>
     <row r="59">
@@ -3865,31 +3865,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3868</v>
+        <v>4435</v>
       </c>
       <c r="D59" t="n">
-        <v>1.119884400628507</v>
+        <v>1.36429831769783</v>
       </c>
       <c r="E59" t="n">
-        <v>1.925317653920501</v>
+        <v>2.228811045992188</v>
       </c>
       <c r="F59" t="n">
-        <v>3868</v>
+        <v>4435</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2124174237251282</v>
+        <v>0.22869514930062</v>
       </c>
       <c r="H59" t="n">
-        <v>1.304855098831467</v>
+        <v>1.577518347883597</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2026488274568692</v>
+        <v>0.246577993966639</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1771921153413132</v>
+        <v>0.142579697072506</v>
       </c>
       <c r="K59" t="n">
-        <v>0.007287362823262811</v>
+        <v>0.008215933688916266</v>
       </c>
     </row>
     <row r="60">
@@ -3900,31 +3900,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4087846608599648</v>
+        <v>0.483373316237703</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7665487920166925</v>
+        <v>0.8351468660403043</v>
       </c>
       <c r="F60" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="G60" t="n">
-        <v>0.08570010319817811</v>
+        <v>0.09223889652639627</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4818852089811116</v>
+        <v>0.5618774401955307</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04343143291771412</v>
+        <v>0.04158488230314106</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1446961020119488</v>
+        <v>0.1274422301212326</v>
       </c>
       <c r="K60" t="n">
-        <v>0.002814954146742821</v>
+        <v>0.002995676128193736</v>
       </c>
     </row>
     <row r="61">
@@ -3935,31 +3935,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2373</v>
+        <v>2584</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01111351943109185</v>
+        <v>0.01217860938049853</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6458137619774789</v>
+        <v>0.5715297380229458</v>
       </c>
       <c r="F61" t="n">
-        <v>2373</v>
+        <v>2584</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1836604158161208</v>
+        <v>0.2024492244236171</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1156874283915386</v>
+        <v>0.1260690129129216</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2975507092196494</v>
+        <v>0.1947837705956772</v>
       </c>
       <c r="J61" t="n">
-        <v>0.03138115257024765</v>
+        <v>0.02909655135590583</v>
       </c>
       <c r="K61" t="n">
-        <v>0.004964029416441917</v>
+        <v>0.005087361903861165</v>
       </c>
     </row>
     <row r="62">
@@ -3970,31 +3970,31 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8263</v>
+        <v>8716</v>
       </c>
       <c r="D62" t="n">
-        <v>1.953019664390013</v>
+        <v>2.546834925422445</v>
       </c>
       <c r="E62" t="n">
-        <v>4.739553194027394</v>
+        <v>5.422518554958515</v>
       </c>
       <c r="F62" t="n">
-        <v>8263</v>
+        <v>8716</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6954477354884148</v>
+        <v>0.7409020513296127</v>
       </c>
       <c r="H62" t="n">
-        <v>2.404564287164249</v>
+        <v>3.028995035332628</v>
       </c>
       <c r="I62" t="n">
-        <v>1.150726954336278</v>
+        <v>1.196375133469701</v>
       </c>
       <c r="J62" t="n">
-        <v>0.4233795172767714</v>
+        <v>0.3859222334576771</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01821132434997708</v>
+        <v>0.01837601512670517</v>
       </c>
     </row>
     <row r="63">
@@ -4005,31 +4005,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2373</v>
+        <v>2584</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5724584746640176</v>
+        <v>0.7445943155325949</v>
       </c>
       <c r="E63" t="n">
-        <v>1.414922662079334</v>
+        <v>1.720914155943319</v>
       </c>
       <c r="F63" t="n">
-        <v>2373</v>
+        <v>2584</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2379503820557147</v>
+        <v>0.3665574875194579</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7010502910707146</v>
+        <v>0.8833851424278691</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2343595256097615</v>
+        <v>0.2283317759865895</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2229052147595212</v>
+        <v>0.2220919271931052</v>
       </c>
       <c r="K63" t="n">
-        <v>0.005246323184110224</v>
+        <v>0.005469208699651062</v>
       </c>
     </row>
     <row r="64">
@@ -4040,31 +4040,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="D64" t="n">
-        <v>1.112170615466312</v>
+        <v>1.367493935977109</v>
       </c>
       <c r="E64" t="n">
-        <v>1.72815067297779</v>
+        <v>1.954493833007291</v>
       </c>
       <c r="F64" t="n">
-        <v>1512</v>
+        <v>1625</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08760046027600765</v>
+        <v>0.09536117885727435</v>
       </c>
       <c r="H64" t="n">
-        <v>1.186282095848583</v>
+        <v>1.451588305295445</v>
       </c>
       <c r="I64" t="n">
-        <v>0.04481203434988856</v>
+        <v>0.04333425534423441</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3979741313960403</v>
+        <v>0.3512615273939446</v>
       </c>
       <c r="K64" t="n">
-        <v>0.003022813121788204</v>
+        <v>0.003429353353567421</v>
       </c>
     </row>
     <row r="65">
@@ -4075,11 +4075,11 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>21587</v>
+        <v>20869</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>25.0621335391188</v>
+        <v>25.30939902679529</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -4100,31 +4100,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="D66" t="n">
-        <v>0.007941568968817592</v>
+        <v>0.006466555874794722</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2620007679797709</v>
+        <v>0.2043917649425566</v>
       </c>
       <c r="F66" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08984486281406134</v>
+        <v>0.06473416485823691</v>
       </c>
       <c r="H66" t="n">
-        <v>0.08482967712916434</v>
+        <v>0.06493240874260664</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04505689616780728</v>
+        <v>0.0386767964810133</v>
       </c>
       <c r="J66" t="n">
-        <v>0.02891382807865739</v>
+        <v>0.02580672106705606</v>
       </c>
       <c r="K66" t="n">
-        <v>0.003540318342857063</v>
+        <v>0.002620618208311498</v>
       </c>
     </row>
     <row r="67">
@@ -4135,31 +4135,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4565</v>
+        <v>3671</v>
       </c>
       <c r="D67" t="n">
-        <v>1.392171551240608</v>
+        <v>1.060218868544325</v>
       </c>
       <c r="E67" t="n">
-        <v>2.31103357905522</v>
+        <v>1.854033902054653</v>
       </c>
       <c r="F67" t="n">
-        <v>4565</v>
+        <v>3671</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2634371449239552</v>
+        <v>0.2094578841933981</v>
       </c>
       <c r="H67" t="n">
-        <v>1.614261854905635</v>
+        <v>1.236366842640564</v>
       </c>
       <c r="I67" t="n">
-        <v>0.242971176514402</v>
+        <v>0.2014316304121166</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1569365143077448</v>
+        <v>0.1791339430492371</v>
       </c>
       <c r="K67" t="n">
-        <v>0.008587724878452718</v>
+        <v>0.006710384623147547</v>
       </c>
     </row>
     <row r="68">
@@ -4170,31 +4170,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4784417664632201</v>
+        <v>0.370966384653002</v>
       </c>
       <c r="E68" t="n">
-        <v>0.993395566008985</v>
+        <v>0.7347346920287237</v>
       </c>
       <c r="F68" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1138196834363043</v>
+        <v>0.08305770973674953</v>
       </c>
       <c r="H68" t="n">
-        <v>0.573002583347261</v>
+        <v>0.443758680135943</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0499243198428303</v>
+        <v>0.04468521277885884</v>
       </c>
       <c r="J68" t="n">
-        <v>0.242401123396121</v>
+        <v>0.1523006706265733</v>
       </c>
       <c r="K68" t="n">
-        <v>0.003706649411469698</v>
+        <v>0.002720415708608925</v>
       </c>
     </row>
     <row r="69">
@@ -4205,31 +4205,31 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3831</v>
+        <v>2294</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01688282773829997</v>
+        <v>0.01121744955889881</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9314172579906881</v>
+        <v>0.544410624075681</v>
       </c>
       <c r="F69" t="n">
-        <v>3831</v>
+        <v>2294</v>
       </c>
       <c r="G69" t="n">
-        <v>0.3071304735494778</v>
+        <v>0.1800631865626201</v>
       </c>
       <c r="H69" t="n">
-        <v>0.185395032633096</v>
+        <v>0.1143198242643848</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3617122400319204</v>
+        <v>0.2028919516596943</v>
       </c>
       <c r="J69" t="n">
-        <v>0.04875933099538088</v>
+        <v>0.02989877026993781</v>
       </c>
       <c r="K69" t="n">
-        <v>0.008055939222685993</v>
+        <v>0.004577149287797511</v>
       </c>
     </row>
     <row r="70">
@@ -4240,31 +4240,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>12229</v>
+        <v>8126</v>
       </c>
       <c r="D70" t="n">
-        <v>2.484635073924437</v>
+        <v>1.542259404901415</v>
       </c>
       <c r="E70" t="n">
-        <v>6.631660767947324</v>
+        <v>4.33076387597248</v>
       </c>
       <c r="F70" t="n">
-        <v>12229</v>
+        <v>8126</v>
       </c>
       <c r="G70" t="n">
-        <v>1.026980272959918</v>
+        <v>0.6839309970382601</v>
       </c>
       <c r="H70" t="n">
-        <v>3.148582662804984</v>
+        <v>1.977844713255763</v>
       </c>
       <c r="I70" t="n">
-        <v>1.87497227138374</v>
+        <v>1.184295314829797</v>
       </c>
       <c r="J70" t="n">
-        <v>0.4839513669721782</v>
+        <v>0.4196902880212292</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02676175802480429</v>
+        <v>0.01736502279527485</v>
       </c>
     </row>
     <row r="71">
@@ -4275,31 +4275,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3831</v>
+        <v>2294</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6947262394241989</v>
+        <v>0.475420044735074</v>
       </c>
       <c r="E71" t="n">
-        <v>1.993764288024977</v>
+        <v>1.307214517029934</v>
       </c>
       <c r="F71" t="n">
-        <v>3831</v>
+        <v>2294</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3863496935227886</v>
+        <v>0.2304425046313554</v>
       </c>
       <c r="H71" t="n">
-        <v>0.897637048154138</v>
+        <v>0.5987758364062756</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4254650388611481</v>
+        <v>0.2416178726125509</v>
       </c>
       <c r="J71" t="n">
-        <v>0.2542268957477063</v>
+        <v>0.2181594062130898</v>
       </c>
       <c r="K71" t="n">
-        <v>0.008280818117782474</v>
+        <v>0.004822140210308135</v>
       </c>
     </row>
     <row r="72">
@@ -4310,31 +4310,31 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="D72" t="n">
-        <v>1.250117418472655</v>
+        <v>1.014220575685613</v>
       </c>
       <c r="E72" t="n">
-        <v>1.904820846044458</v>
+        <v>1.650178518029861</v>
       </c>
       <c r="F72" t="n">
-        <v>2000</v>
+        <v>1484</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1169903574045748</v>
+        <v>0.08479681774042547</v>
       </c>
       <c r="H72" t="n">
-        <v>1.34706343151629</v>
+        <v>1.08770155813545</v>
       </c>
       <c r="I72" t="n">
-        <v>0.05130307527724653</v>
+        <v>0.04581245046574622</v>
       </c>
       <c r="J72" t="n">
-        <v>0.3743881763657555</v>
+        <v>0.4204593249596655</v>
       </c>
       <c r="K72" t="n">
-        <v>0.003945103846490383</v>
+        <v>0.002907478250563145</v>
       </c>
     </row>
     <row r="73">
@@ -4345,11 +4345,11 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>22521</v>
+        <v>21844</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>25.61654001206625</v>
+        <v>25.48875334206969</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -4370,31 +4370,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006872928235679865</v>
+        <v>0.00680618395563215</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2191361850127578</v>
+        <v>0.2063428049441427</v>
       </c>
       <c r="F74" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="G74" t="n">
-        <v>0.06900968251284212</v>
+        <v>0.06590105104260147</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07123481098096818</v>
+        <v>0.06786419381387532</v>
       </c>
       <c r="I74" t="n">
-        <v>0.03988299844786525</v>
+        <v>0.03654985001776367</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02782103908248246</v>
+        <v>0.02530546137131751</v>
       </c>
       <c r="K74" t="n">
-        <v>0.002992116846144199</v>
+        <v>0.002738234703429043</v>
       </c>
     </row>
     <row r="75">
@@ -4405,31 +4405,31 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4068</v>
+        <v>3899</v>
       </c>
       <c r="D75" t="n">
-        <v>1.182138376869261</v>
+        <v>1.17613114300184</v>
       </c>
       <c r="E75" t="n">
-        <v>1.983403837075457</v>
+        <v>1.92102554498706</v>
       </c>
       <c r="F75" t="n">
-        <v>4068</v>
+        <v>3899</v>
       </c>
       <c r="G75" t="n">
-        <v>0.21252011123579</v>
+        <v>0.2001572262961417</v>
       </c>
       <c r="H75" t="n">
-        <v>1.374303969671018</v>
+        <v>1.362057811114937</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2125271951081231</v>
+        <v>0.2007366199977696</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1545152850449085</v>
+        <v>0.1289224536158144</v>
       </c>
       <c r="K75" t="n">
-        <v>0.007540681050159037</v>
+        <v>0.007182226283475757</v>
       </c>
     </row>
     <row r="76">
@@ -4440,31 +4440,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4079817737219855</v>
+        <v>0.4086818643845618</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7684821679722518</v>
+        <v>0.7297387880971655</v>
       </c>
       <c r="F76" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0879549429519102</v>
+        <v>0.08231115178205073</v>
       </c>
       <c r="H76" t="n">
-        <v>0.487085270229727</v>
+        <v>0.4835934324655682</v>
       </c>
       <c r="I76" t="n">
-        <v>0.04486106522381306</v>
+        <v>0.04169239616021514</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1367392466636375</v>
+        <v>0.110717955743894</v>
       </c>
       <c r="K76" t="n">
-        <v>0.003080845228396356</v>
+        <v>0.002856189268641174</v>
       </c>
     </row>
     <row r="77">
@@ -4475,31 +4475,31 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2777</v>
+        <v>2619</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0126769901253283</v>
+        <v>0.01242311636451632</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6803977960953489</v>
+        <v>0.6458514709956944</v>
       </c>
       <c r="F77" t="n">
-        <v>2777</v>
+        <v>2619</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2224558220477775</v>
+        <v>0.207262521609664</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1353804642567411</v>
+        <v>0.1280707389814779</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2643749135313556</v>
+        <v>0.2517875989433378</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03780796937644482</v>
+        <v>0.03909517999272794</v>
       </c>
       <c r="K77" t="n">
-        <v>0.005732170189730823</v>
+        <v>0.005276218405924737</v>
       </c>
     </row>
     <row r="78">
@@ -4510,31 +4510,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>9345</v>
+        <v>8587</v>
       </c>
       <c r="D78" t="n">
-        <v>1.809686120715924</v>
+        <v>1.699825948802754</v>
       </c>
       <c r="E78" t="n">
-        <v>4.986704700975679</v>
+        <v>4.666026287013665</v>
       </c>
       <c r="F78" t="n">
-        <v>9345</v>
+        <v>8587</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7846761887194589</v>
+        <v>0.7304396777180955</v>
       </c>
       <c r="H78" t="n">
-        <v>2.31782591866795</v>
+        <v>2.166770534240641</v>
       </c>
       <c r="I78" t="n">
-        <v>1.415771876578219</v>
+        <v>1.336149232578464</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3947718967683613</v>
+        <v>0.3609173394506797</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02045320894103497</v>
+        <v>0.02045465772971511</v>
       </c>
     </row>
     <row r="79">
@@ -4545,31 +4545,31 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2777</v>
+        <v>2619</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5214077346026897</v>
+        <v>0.5387318608118221</v>
       </c>
       <c r="E79" t="n">
-        <v>1.495061280904338</v>
+        <v>1.45212915900629</v>
       </c>
       <c r="F79" t="n">
-        <v>2777</v>
+        <v>2619</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2785407401388511</v>
+        <v>0.2615939134266227</v>
       </c>
       <c r="H79" t="n">
-        <v>0.6690188299398869</v>
+        <v>0.6794629277428612</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3130044883582741</v>
+        <v>0.2976228279294446</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2124978218926117</v>
+        <v>0.1924869957147166</v>
       </c>
       <c r="K79" t="n">
-        <v>0.006089306087233126</v>
+        <v>0.005634830915369093</v>
       </c>
     </row>
     <row r="80">
@@ -4580,31 +4580,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="D80" t="n">
-        <v>1.124996037222445</v>
+        <v>1.103663301328197</v>
       </c>
       <c r="E80" t="n">
-        <v>1.770438567036763</v>
+        <v>1.634895168943331</v>
       </c>
       <c r="F80" t="n">
-        <v>1657</v>
+        <v>1551</v>
       </c>
       <c r="G80" t="n">
-        <v>0.09035145025700331</v>
+        <v>0.08406525803729892</v>
       </c>
       <c r="H80" t="n">
-        <v>1.205026828800328</v>
+        <v>1.17953142512124</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04586760851088911</v>
+        <v>0.04285890934988856</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4167669650632888</v>
+        <v>0.3165301431436092</v>
       </c>
       <c r="K80" t="n">
-        <v>0.003226679866202176</v>
+        <v>0.003076807595789433</v>
       </c>
     </row>
     <row r="81">
@@ -4615,11 +4615,11 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>20965</v>
+        <v>21069</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
-        <v>25.2095581399044</v>
+        <v>25.44877722207457</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -4640,31 +4640,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="D82" t="n">
-        <v>0.007681322284042835</v>
+        <v>0.006448513362556696</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2302974240155891</v>
+        <v>0.3090603839373216</v>
       </c>
       <c r="F82" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07486102089751512</v>
+        <v>0.1713427259819582</v>
       </c>
       <c r="H82" t="n">
-        <v>0.08058825472835451</v>
+        <v>0.06504951324313879</v>
       </c>
       <c r="I82" t="n">
-        <v>0.03799874987453222</v>
+        <v>0.03756320604588836</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02416436478961259</v>
+        <v>0.02494578727055341</v>
       </c>
       <c r="K82" t="n">
-        <v>0.003367057535797358</v>
+        <v>0.002574762678705156</v>
       </c>
     </row>
     <row r="83">
@@ -4675,31 +4675,31 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4924</v>
+        <v>3934</v>
       </c>
       <c r="D83" t="n">
-        <v>1.560440473956987</v>
+        <v>1.191642660880461</v>
       </c>
       <c r="E83" t="n">
-        <v>2.431446873000823</v>
+        <v>2.007430774043314</v>
       </c>
       <c r="F83" t="n">
-        <v>4924</v>
+        <v>3934</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2293282824102789</v>
+        <v>0.2217996838735417</v>
       </c>
       <c r="H83" t="n">
-        <v>1.79372604098171</v>
+        <v>1.384143091738224</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2309466971782967</v>
+        <v>0.2157737951492891</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1415239119669423</v>
+        <v>0.1560753374360502</v>
       </c>
       <c r="K83" t="n">
-        <v>0.009211087599396706</v>
+        <v>0.007345673628151417</v>
       </c>
     </row>
     <row r="84">
@@ -4710,31 +4710,31 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5369173056678846</v>
+        <v>0.4194866293109953</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9051302049774677</v>
+        <v>0.7668894738890231</v>
       </c>
       <c r="F84" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="G84" t="n">
-        <v>0.09639089158736169</v>
+        <v>0.08710140991024673</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6277145330095664</v>
+        <v>0.4913325944216922</v>
       </c>
       <c r="I84" t="n">
-        <v>0.04072749183978885</v>
+        <v>0.04292173066642135</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1265874749515206</v>
+        <v>0.134723047609441</v>
       </c>
       <c r="K84" t="n">
-        <v>0.003640658920630813</v>
+        <v>0.002685000072233379</v>
       </c>
     </row>
     <row r="85">
@@ -4745,31 +4745,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3644</v>
+        <v>2068</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01585618301760405</v>
+        <v>0.009841058286838233</v>
       </c>
       <c r="E85" t="n">
-        <v>0.815587084973231</v>
+        <v>0.4502361620543525</v>
       </c>
       <c r="F85" t="n">
-        <v>3644</v>
+        <v>2068</v>
       </c>
       <c r="G85" t="n">
-        <v>0.2830166860949248</v>
+        <v>0.1626227732049301</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1746063047321513</v>
+        <v>0.1002428960055113</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2942099082283676</v>
+        <v>0.1486773382639512</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03702765249181539</v>
+        <v>0.02339143364224583</v>
       </c>
       <c r="K85" t="n">
-        <v>0.007344456389546394</v>
+        <v>0.004135279799811542</v>
       </c>
     </row>
     <row r="86">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11098</v>
+        <v>7417</v>
       </c>
       <c r="D86" t="n">
-        <v>3.330950471805409</v>
+        <v>1.766396226594225</v>
       </c>
       <c r="E86" t="n">
-        <v>6.906814247951843</v>
+        <v>4.257390265003778</v>
       </c>
       <c r="F86" t="n">
-        <v>11098</v>
+        <v>7417</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9332441063597798</v>
+        <v>0.6289792591705918</v>
       </c>
       <c r="H86" t="n">
-        <v>3.939202205161564</v>
+        <v>2.168029955937527</v>
       </c>
       <c r="I86" t="n">
-        <v>1.57772615889553</v>
+        <v>1.017069423571229</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3685082655865699</v>
+        <v>0.3841063537402079</v>
       </c>
       <c r="K86" t="n">
-        <v>0.02417296939529479</v>
+        <v>0.01577928161714226</v>
       </c>
     </row>
     <row r="87">
@@ -4815,31 +4815,31 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3644</v>
+        <v>2068</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9656163834733889</v>
+        <v>0.5464559540851042</v>
       </c>
       <c r="E87" t="n">
-        <v>2.116573921986856</v>
+        <v>1.257292810943909</v>
       </c>
       <c r="F87" t="n">
-        <v>3644</v>
+        <v>2068</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3664927046047524</v>
+        <v>0.2062617390183732</v>
       </c>
       <c r="H87" t="n">
-        <v>1.15844144532457</v>
+        <v>0.656477807322517</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3462112710112706</v>
+        <v>0.1757437522755936</v>
       </c>
       <c r="J87" t="n">
-        <v>0.2170849996618927</v>
+        <v>0.2025037872372195</v>
       </c>
       <c r="K87" t="n">
-        <v>0.007716343272477388</v>
+        <v>0.004407278029248118</v>
       </c>
     </row>
     <row r="88">
@@ -4850,31 +4850,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="D88" t="n">
-        <v>1.316587038221769</v>
+        <v>1.191225556540303</v>
       </c>
       <c r="E88" t="n">
-        <v>1.855339478934184</v>
+        <v>1.795562296989374</v>
       </c>
       <c r="F88" t="n">
-        <v>1909</v>
+        <v>1470</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09907417558133602</v>
+        <v>0.08904104062821716</v>
       </c>
       <c r="H88" t="n">
-        <v>1.4089270029217</v>
+        <v>1.26569981337525</v>
       </c>
       <c r="I88" t="n">
-        <v>0.04234655073378235</v>
+        <v>0.04421682795509696</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2906294917920604</v>
+        <v>0.3851497708819807</v>
       </c>
       <c r="K88" t="n">
-        <v>0.003760916762985289</v>
+        <v>0.002897420316003263</v>
       </c>
     </row>
     <row r="89">
@@ -4885,11 +4885,11 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>21628</v>
+        <v>20123</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
-        <v>25.04876994201913</v>
+        <v>25.00619462912437</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -4910,31 +4910,31 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="D90" t="n">
-        <v>0.007459375192411244</v>
+        <v>0.006864218856208026</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2291297659976408</v>
+        <v>0.2121081119403243</v>
       </c>
       <c r="F90" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07541645120363683</v>
+        <v>0.07090775715187192</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0791379134170711</v>
+        <v>0.06944787013344467</v>
       </c>
       <c r="I90" t="n">
-        <v>0.037698540603742</v>
+        <v>0.03664198680780828</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02447345177643001</v>
+        <v>0.02389866416342556</v>
       </c>
       <c r="K90" t="n">
-        <v>0.00330780609510839</v>
+        <v>0.002891750307753682</v>
       </c>
     </row>
     <row r="91">
@@ -4945,31 +4945,31 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4696</v>
+        <v>3966</v>
       </c>
       <c r="D91" t="n">
-        <v>1.476722085499205</v>
+        <v>1.165447092382237</v>
       </c>
       <c r="E91" t="n">
-        <v>2.343523827032186</v>
+        <v>1.942414704011753</v>
       </c>
       <c r="F91" t="n">
-        <v>4696</v>
+        <v>3966</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2341553053120151</v>
+        <v>0.2119148790370673</v>
       </c>
       <c r="H91" t="n">
-        <v>1.702994873048738</v>
+        <v>1.354423503740691</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2393700029933825</v>
+        <v>0.2094095807988197</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1323402738198638</v>
+        <v>0.1367379855364561</v>
       </c>
       <c r="K91" t="n">
-        <v>0.008978408179245889</v>
+        <v>0.007509326213039458</v>
       </c>
     </row>
     <row r="92">
@@ -4980,31 +4980,31 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5107200692873448</v>
+        <v>0.4284006353700534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8846484880195931</v>
+        <v>0.773372619994916</v>
       </c>
       <c r="F92" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09706642362289131</v>
+        <v>0.08928256598301232</v>
       </c>
       <c r="H92" t="n">
-        <v>0.597986688837409</v>
+        <v>0.5056423450587317</v>
       </c>
       <c r="I92" t="n">
-        <v>0.0413726819679141</v>
+        <v>0.04127699532546103</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1349706881446764</v>
+        <v>0.1252729711122811</v>
       </c>
       <c r="K92" t="n">
-        <v>0.00345845555420965</v>
+        <v>0.002988284220919013</v>
       </c>
     </row>
     <row r="93">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3263</v>
+        <v>2870</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01434254460036755</v>
+        <v>0.0136523034889251</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7173611629987136</v>
+        <v>0.6678151689702645</v>
       </c>
       <c r="F93" t="n">
-        <v>3263</v>
+        <v>2870</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2527179924072698</v>
+        <v>0.2250834841979668</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1558119377586991</v>
+        <v>0.1413758744020015</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2511254115961492</v>
+        <v>0.2450425954302773</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03382515569683164</v>
+        <v>0.03489418316166848</v>
       </c>
       <c r="K93" t="n">
-        <v>0.006701288046315312</v>
+        <v>0.005675562308169901</v>
       </c>
     </row>
     <row r="94">
@@ -5050,31 +5050,31 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>10449</v>
+        <v>9125</v>
       </c>
       <c r="D94" t="n">
-        <v>2.991383251501247</v>
+        <v>1.997201978461817</v>
       </c>
       <c r="E94" t="n">
-        <v>6.410403633024544</v>
+        <v>5.076782268006355</v>
       </c>
       <c r="F94" t="n">
-        <v>10449</v>
+        <v>9125</v>
       </c>
       <c r="G94" t="n">
-        <v>0.879317251034081</v>
+        <v>0.7774024121463299</v>
       </c>
       <c r="H94" t="n">
-        <v>3.569515746552497</v>
+        <v>2.497597220586613</v>
       </c>
       <c r="I94" t="n">
-        <v>1.489027587464079</v>
+        <v>1.355934175779112</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3895532467868179</v>
+        <v>0.372534126858227</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02284050127491355</v>
+        <v>0.01925328653305769</v>
       </c>
     </row>
     <row r="95">
@@ -5085,31 +5085,31 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3263</v>
+        <v>2870</v>
       </c>
       <c r="D95" t="n">
-        <v>0.845737376366742</v>
+        <v>0.6184483988909051</v>
       </c>
       <c r="E95" t="n">
-        <v>1.887741946964525</v>
+        <v>1.584491068962961</v>
       </c>
       <c r="F95" t="n">
-        <v>3263</v>
+        <v>2870</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3270593722118065</v>
+        <v>0.2889510638779029</v>
       </c>
       <c r="H95" t="n">
-        <v>1.018449261900969</v>
+        <v>0.769906883360818</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2955974307842553</v>
+        <v>0.2912931550526991</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2210238752886653</v>
+        <v>0.2115238432306796</v>
       </c>
       <c r="K95" t="n">
-        <v>0.007069628685712814</v>
+        <v>0.006057948572561145</v>
       </c>
     </row>
     <row r="96">
@@ -5120,31 +5120,31 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="D96" t="n">
-        <v>1.270578252733685</v>
+        <v>1.130663682823069</v>
       </c>
       <c r="E96" t="n">
-        <v>1.803261296940036</v>
+        <v>1.689363439101726</v>
       </c>
       <c r="F96" t="n">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1004594541154802</v>
+        <v>0.09307722805533558</v>
       </c>
       <c r="H96" t="n">
-        <v>1.360288135823794</v>
+        <v>1.210264219436795</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0425867335870862</v>
+        <v>0.04231261264067143</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2858865119051188</v>
+        <v>0.3313296601409093</v>
       </c>
       <c r="K96" t="n">
-        <v>0.003725479356944561</v>
+        <v>0.003126783296465874</v>
       </c>
     </row>
     <row r="97">
@@ -5155,11 +5155,11 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>21342</v>
+        <v>21575</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>25.22842748998664</v>
+        <v>25.1534202148905</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -5180,31 +5180,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="D98" t="n">
-        <v>0.005138134583830833</v>
+        <v>0.005598129238933325</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1574317669728771</v>
+        <v>0.1817779190605506</v>
       </c>
       <c r="F98" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.04928214405663311</v>
+        <v>0.05978499574121088</v>
       </c>
       <c r="H98" t="n">
-        <v>0.04898584703914821</v>
+        <v>0.05451349192298949</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0292785030324012</v>
+        <v>0.03479204222094268</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02243587281554937</v>
+        <v>0.02422770205885172</v>
       </c>
       <c r="K98" t="n">
-        <v>0.001965683070011437</v>
+        <v>0.002174934954382479</v>
       </c>
     </row>
     <row r="99">
@@ -5215,31 +5215,31 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3067</v>
+        <v>3444</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9265923477942124</v>
+        <v>1.067990588606335</v>
       </c>
       <c r="E99" t="n">
-        <v>1.570802623988129</v>
+        <v>1.779524664045312</v>
       </c>
       <c r="F99" t="n">
-        <v>3067</v>
+        <v>3444</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1651036794064566</v>
+        <v>0.1985320292878896</v>
       </c>
       <c r="H99" t="n">
-        <v>1.073430840391666</v>
+        <v>1.23320647305809</v>
       </c>
       <c r="I99" t="n">
-        <v>0.157062791637145</v>
+        <v>0.1939095755806193</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1528948397608474</v>
+        <v>0.1280949054053053</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0057281682966277</v>
+        <v>0.006403356557711959</v>
       </c>
     </row>
     <row r="100">
@@ -5250,31 +5250,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3448091777972877</v>
+        <v>0.3743549770442769</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6305630640126765</v>
+        <v>0.6871521150460467</v>
       </c>
       <c r="F100" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="G100" t="n">
-        <v>0.06291807326488197</v>
+        <v>0.07712265360169113</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3984745724592358</v>
+        <v>0.4350364974234253</v>
       </c>
       <c r="I100" t="n">
-        <v>0.03348155459389091</v>
+        <v>0.03971186571288854</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1278118059271947</v>
+        <v>0.1261204524198547</v>
       </c>
       <c r="K100" t="n">
-        <v>0.002061884035356343</v>
+        <v>0.002289514639414847</v>
       </c>
     </row>
     <row r="101">
@@ -5285,31 +5285,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1530</v>
+        <v>1695</v>
       </c>
       <c r="D101" t="n">
-        <v>0.007424118346534669</v>
+        <v>0.008343229303136468</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3251003560144454</v>
+        <v>0.381638687918894</v>
       </c>
       <c r="F101" t="n">
-        <v>1530</v>
+        <v>1695</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1182152146939188</v>
+        <v>0.1354778752429411</v>
       </c>
       <c r="H101" t="n">
-        <v>0.07473162969108671</v>
+        <v>0.08338048937730491</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1019311541458592</v>
+        <v>0.1242515130434185</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01899127976503223</v>
+        <v>0.02582377335056663</v>
       </c>
       <c r="K101" t="n">
-        <v>0.003179630031809211</v>
+        <v>0.003438818734139204</v>
       </c>
     </row>
     <row r="102">
@@ -5320,31 +5320,31 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5509</v>
+        <v>5828</v>
       </c>
       <c r="D102" t="n">
-        <v>1.440658932318911</v>
+        <v>1.5484200832434</v>
       </c>
       <c r="E102" t="n">
-        <v>3.330742725986056</v>
+        <v>3.513330260990188</v>
       </c>
       <c r="F102" t="n">
-        <v>5509</v>
+        <v>5828</v>
       </c>
       <c r="G102" t="n">
-        <v>0.5702066242229193</v>
+        <v>0.4920391738414764</v>
       </c>
       <c r="H102" t="n">
-        <v>1.733331423834898</v>
+        <v>1.858290516771376</v>
       </c>
       <c r="I102" t="n">
-        <v>0.6506192205706611</v>
+        <v>0.7640767156844959</v>
       </c>
       <c r="J102" t="n">
-        <v>0.3327407352626324</v>
+        <v>0.3518051829887554</v>
       </c>
       <c r="K102" t="n">
-        <v>0.01210788439493626</v>
+        <v>0.01270447601564229</v>
       </c>
     </row>
     <row r="103">
@@ -5355,31 +5355,31 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1530</v>
+        <v>1695</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4677622449817136</v>
+        <v>0.5871045457897708</v>
       </c>
       <c r="E103" t="n">
-        <v>1.021175370900892</v>
+        <v>1.224772962043062</v>
       </c>
       <c r="F103" t="n">
-        <v>1530</v>
+        <v>1695</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1532656954368576</v>
+        <v>0.1735719724092633</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5503632579930127</v>
+        <v>0.681072099134326</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1186325239250436</v>
+        <v>0.1462724581360817</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1868777258787304</v>
+        <v>0.2098953543463722</v>
       </c>
       <c r="K103" t="n">
-        <v>0.003380618873052299</v>
+        <v>0.00400568509940058</v>
       </c>
     </row>
     <row r="104">
@@ -5390,31 +5390,31 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8990647697355598</v>
+        <v>1.04192208382301</v>
       </c>
       <c r="E104" t="n">
-        <v>1.410567170009017</v>
+        <v>1.640926433959976</v>
       </c>
       <c r="F104" t="n">
-        <v>1086</v>
+        <v>1225</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06467998004518449</v>
+        <v>0.07883383450098336</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9533133406657726</v>
+        <v>1.103857766254805</v>
       </c>
       <c r="I104" t="n">
-        <v>0.03428132261615247</v>
+        <v>0.04088670352939516</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3500304097542539</v>
+        <v>0.4077321736840531</v>
       </c>
       <c r="K104" t="n">
-        <v>0.002145002479664981</v>
+        <v>0.0024558175355196</v>
       </c>
     </row>
     <row r="105">
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>19868</v>
+        <v>18278</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>25.65396355499979</v>
+        <v>25.68544725596439</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -5450,31 +5450,31 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="D106" t="n">
-        <v>0.007614489877596498</v>
+        <v>0.009172231308184564</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4152242440031841</v>
+        <v>0.3352363969897851</v>
       </c>
       <c r="F106" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="G106" t="n">
-        <v>0.07745848526246846</v>
+        <v>0.07051294110715389</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07980625971686095</v>
+        <v>0.08102865726687014</v>
       </c>
       <c r="I106" t="n">
-        <v>0.2206225869012997</v>
+        <v>0.1448616458801553</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02494315803050995</v>
+        <v>0.02610500727314502</v>
       </c>
       <c r="K106" t="n">
-        <v>0.003293316229246557</v>
+        <v>0.003300514654256403</v>
       </c>
     </row>
     <row r="107">
@@ -5485,31 +5485,31 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4341</v>
+        <v>4105</v>
       </c>
       <c r="D107" t="n">
-        <v>1.286261538858525</v>
+        <v>1.184614707599394</v>
       </c>
       <c r="E107" t="n">
-        <v>2.132133326027542</v>
+        <v>1.963817910989746</v>
       </c>
       <c r="F107" t="n">
-        <v>4341</v>
+        <v>4105</v>
       </c>
       <c r="G107" t="n">
-        <v>0.2260417757788673</v>
+        <v>0.204108274076134</v>
       </c>
       <c r="H107" t="n">
-        <v>1.494898214004934</v>
+        <v>1.377779398229904</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2192112152697518</v>
+        <v>0.1919883820228279</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1601530341431499</v>
+        <v>0.1595404255203903</v>
       </c>
       <c r="K107" t="n">
-        <v>0.008281940361484885</v>
+        <v>0.007592893671244383</v>
       </c>
     </row>
     <row r="108">
@@ -5520,31 +5520,31 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4815105866873637</v>
+        <v>0.4505252176895738</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8675589540507644</v>
+        <v>0.8246105229482055</v>
       </c>
       <c r="F108" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="G108" t="n">
-        <v>0.09675645735114813</v>
+        <v>0.09129426151048392</v>
       </c>
       <c r="H108" t="n">
-        <v>0.5691698672017083</v>
+        <v>0.539688479853794</v>
       </c>
       <c r="I108" t="n">
-        <v>0.04265268961898983</v>
+        <v>0.04359225661028177</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1458346189465374</v>
+        <v>0.1363493755925447</v>
       </c>
       <c r="K108" t="n">
-        <v>0.003453731187619269</v>
+        <v>0.003398191649466753</v>
       </c>
     </row>
     <row r="109">
@@ -5555,31 +5555,31 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3421</v>
+        <v>3633</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01603852270636708</v>
+        <v>0.01674951252061874</v>
       </c>
       <c r="E109" t="n">
-        <v>0.8723334069363773</v>
+        <v>0.9086120590800419</v>
       </c>
       <c r="F109" t="n">
-        <v>3421</v>
+        <v>3633</v>
       </c>
       <c r="G109" t="n">
-        <v>0.266105956514366</v>
+        <v>0.2874965248629451</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1683813225245103</v>
+        <v>0.1779757321346551</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3664327206788585</v>
+        <v>0.3684257679851726</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04609336284920573</v>
+        <v>0.04733208322431892</v>
       </c>
       <c r="K109" t="n">
-        <v>0.007085732650011778</v>
+        <v>0.00721348321530968</v>
       </c>
     </row>
     <row r="110">
@@ -5590,31 +5590,31 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10493</v>
+        <v>11287</v>
       </c>
       <c r="D110" t="n">
-        <v>2.313701588544063</v>
+        <v>2.078057101927698</v>
       </c>
       <c r="E110" t="n">
-        <v>5.994831983931363</v>
+        <v>6.085201404988766</v>
       </c>
       <c r="F110" t="n">
-        <v>10493</v>
+        <v>11287</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8764836590271443</v>
+        <v>1.061097082099877</v>
       </c>
       <c r="H110" t="n">
-        <v>2.890118390205316</v>
+        <v>2.694947893964127</v>
       </c>
       <c r="I110" t="n">
-        <v>1.70384935173206</v>
+        <v>1.796448787907138</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4408249489497393</v>
+        <v>0.4415798177942634</v>
       </c>
       <c r="K110" t="n">
-        <v>0.02303162752650678</v>
+        <v>0.02361396444030106</v>
       </c>
     </row>
     <row r="111">
@@ -5625,31 +5625,31 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3421</v>
+        <v>3633</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8052276588277891</v>
+        <v>0.7727726250886917</v>
       </c>
       <c r="E111" t="n">
-        <v>2.036299394909292</v>
+        <v>2.045692619984038</v>
       </c>
       <c r="F111" t="n">
-        <v>3421</v>
+        <v>3633</v>
       </c>
       <c r="G111" t="n">
-        <v>0.344660573406145</v>
+        <v>0.3722128141671419</v>
       </c>
       <c r="H111" t="n">
-        <v>0.9881198963848874</v>
+        <v>0.967789857997559</v>
       </c>
       <c r="I111" t="n">
-        <v>0.4370636697858572</v>
+        <v>0.4394922700012103</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2394937907811254</v>
+        <v>0.2362476884154603</v>
       </c>
       <c r="K111" t="n">
-        <v>0.007403884548693895</v>
+        <v>0.008553829975426197</v>
       </c>
     </row>
     <row r="112">
@@ -5660,31 +5660,31 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="D112" t="n">
-        <v>1.372750558308326</v>
+        <v>1.202988623990677</v>
       </c>
       <c r="E112" t="n">
-        <v>2.046490947017446</v>
+        <v>1.82113702094648</v>
       </c>
       <c r="F112" t="n">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="G112" t="n">
-        <v>0.09992869396228343</v>
+        <v>0.09257468511350453</v>
       </c>
       <c r="H112" t="n">
-        <v>1.46254084573593</v>
+        <v>1.292038969811983</v>
       </c>
       <c r="I112" t="n">
-        <v>0.04400848329532892</v>
+        <v>0.04426857549697161</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4261193966958672</v>
+        <v>0.3779669170035049</v>
       </c>
       <c r="K112" t="n">
-        <v>0.003693699487484992</v>
+        <v>0.003665058640763164</v>
       </c>
     </row>
     <row r="113">
@@ -5695,11 +5695,11 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>20830</v>
+        <v>21071</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
-        <v>25.43919122894295</v>
+        <v>25.63816184096504</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -5720,31 +5720,31 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="D114" t="n">
-        <v>0.006706100422888994</v>
+        <v>0.008237667148932815</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1840482450788841</v>
+        <v>0.3520075340056792</v>
       </c>
       <c r="F114" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="G114" t="n">
-        <v>0.05151297687552869</v>
+        <v>0.1830072086304426</v>
       </c>
       <c r="H114" t="n">
-        <v>0.07031702576205134</v>
+        <v>0.085070920875296</v>
       </c>
       <c r="I114" t="n">
-        <v>0.03025676764082164</v>
+        <v>0.04259515576995909</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02111133793368936</v>
+        <v>0.02807893080171198</v>
       </c>
       <c r="K114" t="n">
-        <v>0.002879090141505003</v>
+        <v>0.003410839708521962</v>
       </c>
     </row>
     <row r="115">
@@ -5755,31 +5755,31 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3606</v>
+        <v>4557</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9989751446992159</v>
+        <v>1.369105413672514</v>
       </c>
       <c r="E115" t="n">
-        <v>1.597300388966687</v>
+        <v>2.220545324962586</v>
       </c>
       <c r="F115" t="n">
-        <v>3606</v>
+        <v>4557</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1442774249007925</v>
+        <v>0.2342298303265125</v>
       </c>
       <c r="H115" t="n">
-        <v>1.165091271745041</v>
+        <v>1.585273257573135</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1395895859459415</v>
+        <v>0.2287182073341683</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1223723579896614</v>
+        <v>0.1386413417058066</v>
       </c>
       <c r="K115" t="n">
-        <v>0.006717913784086704</v>
+        <v>0.008339422522112727</v>
       </c>
     </row>
     <row r="116">
@@ -5790,31 +5790,31 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3982423427514732</v>
+        <v>0.4905383066507056</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6963547080522403</v>
+        <v>0.879498069989495</v>
       </c>
       <c r="F116" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="G116" t="n">
-        <v>0.06638810026925057</v>
+        <v>0.1052412148565054</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4747236280236393</v>
+        <v>0.5836086138151586</v>
       </c>
       <c r="I116" t="n">
-        <v>0.03394183644559234</v>
+        <v>0.04718248604331166</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1096392774488777</v>
+        <v>0.1293395065004006</v>
       </c>
       <c r="K116" t="n">
-        <v>0.003049351158551872</v>
+        <v>0.003552451846189797</v>
       </c>
     </row>
     <row r="117">
@@ -5825,31 +5825,31 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4021</v>
+        <v>3452</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0181873005349189</v>
+        <v>0.01593695941846818</v>
       </c>
       <c r="E117" t="n">
-        <v>1.084672951954417</v>
+        <v>0.8144734340021387</v>
       </c>
       <c r="F117" t="n">
-        <v>4021</v>
+        <v>3452</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3231303803622723</v>
+        <v>0.2735218334710225</v>
       </c>
       <c r="H117" t="n">
-        <v>0.2008911471348256</v>
+        <v>0.1672243828652427</v>
       </c>
       <c r="I117" t="n">
-        <v>0.4718497428111732</v>
+        <v>0.3035510804038495</v>
       </c>
       <c r="J117" t="n">
-        <v>0.05882601242046803</v>
+        <v>0.04424487124197185</v>
       </c>
       <c r="K117" t="n">
-        <v>0.008162917452864349</v>
+        <v>0.00694244378246367</v>
       </c>
     </row>
     <row r="118">
@@ -5860,31 +5860,31 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>11134</v>
+        <v>10320</v>
       </c>
       <c r="D118" t="n">
-        <v>2.27335341530852</v>
+        <v>2.191438985057175</v>
       </c>
       <c r="E118" t="n">
-        <v>6.188779821037315</v>
+        <v>5.63772161595989</v>
       </c>
       <c r="F118" t="n">
-        <v>11134</v>
+        <v>10320</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9363035465357825</v>
+        <v>0.8751755661796778</v>
       </c>
       <c r="H118" t="n">
-        <v>2.884610656881705</v>
+        <v>2.761106736725196</v>
       </c>
       <c r="I118" t="n">
-        <v>1.872168245259672</v>
+        <v>1.522607606020756</v>
       </c>
       <c r="J118" t="n">
-        <v>0.4069924622308463</v>
+        <v>0.3960628230124712</v>
       </c>
       <c r="K118" t="n">
-        <v>0.02453497389797121</v>
+        <v>0.02201785543002188</v>
       </c>
     </row>
     <row r="119">
@@ -5895,31 +5895,31 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4021</v>
+        <v>3452</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7609633097890764</v>
+        <v>0.6638944433070719</v>
       </c>
       <c r="E119" t="n">
-        <v>2.187707416946068</v>
+        <v>1.811929836054333</v>
       </c>
       <c r="F119" t="n">
-        <v>4021</v>
+        <v>3452</v>
       </c>
       <c r="G119" t="n">
-        <v>0.403102460433729</v>
+        <v>0.3482546311570331</v>
       </c>
       <c r="H119" t="n">
-        <v>0.9751706850947812</v>
+        <v>0.8475178992375731</v>
       </c>
       <c r="I119" t="n">
-        <v>0.5579978929599747</v>
+        <v>0.3603530764812604</v>
       </c>
       <c r="J119" t="n">
-        <v>0.2198039882350713</v>
+        <v>0.2281398591585457</v>
       </c>
       <c r="K119" t="n">
-        <v>0.008464553277008235</v>
+        <v>0.007394423126243055</v>
       </c>
     </row>
     <row r="120">
@@ -5930,31 +5930,31 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9233005945570767</v>
+        <v>1.424664743011817</v>
       </c>
       <c r="E120" t="n">
-        <v>1.368077661958523</v>
+        <v>2.170535705983639</v>
       </c>
       <c r="F120" t="n">
-        <v>1644</v>
+        <v>1943</v>
       </c>
       <c r="G120" t="n">
-        <v>0.06794434692710638</v>
+        <v>0.2120271952589974</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9998985404381528</v>
+        <v>1.519745925441384</v>
       </c>
       <c r="I120" t="n">
-        <v>0.03462779964320362</v>
+        <v>0.04866035969462246</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2533367294818163</v>
+        <v>0.3752581427106634</v>
       </c>
       <c r="K120" t="n">
-        <v>0.003233770374208689</v>
+        <v>0.003784028813242912</v>
       </c>
     </row>
     <row r="121">
@@ -5965,11 +5965,11 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>19705</v>
+        <v>20797</v>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
-        <v>26.93094624683727</v>
+        <v>25.18640626978595</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -5990,31 +5990,31 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="D122" t="n">
-        <v>0.006205186247825623</v>
+        <v>0.007421578862704337</v>
       </c>
       <c r="E122" t="n">
-        <v>0.215170277049765</v>
+        <v>0.254028259892948</v>
       </c>
       <c r="F122" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="G122" t="n">
-        <v>0.07459189521614462</v>
+        <v>0.08962488919496536</v>
       </c>
       <c r="H122" t="n">
-        <v>0.06772141659166664</v>
+        <v>0.07482774648815393</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0392729549203068</v>
+        <v>0.04748354619368911</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0233898590086028</v>
+        <v>0.03052594652399421</v>
       </c>
       <c r="K122" t="n">
-        <v>0.002687545260414481</v>
+        <v>0.00294494116678834</v>
       </c>
     </row>
     <row r="123">
@@ -6025,31 +6025,31 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3901</v>
+        <v>4421</v>
       </c>
       <c r="D123" t="n">
-        <v>1.217716206097975</v>
+        <v>1.392810526769608</v>
       </c>
       <c r="E123" t="n">
-        <v>2.132437455933541</v>
+        <v>2.370932491030544</v>
       </c>
       <c r="F123" t="n">
-        <v>3901</v>
+        <v>4421</v>
       </c>
       <c r="G123" t="n">
-        <v>0.2332700389670208</v>
+        <v>0.2867511990480125</v>
       </c>
       <c r="H123" t="n">
-        <v>1.407136628171429</v>
+        <v>1.613665464450605</v>
       </c>
       <c r="I123" t="n">
-        <v>0.2130449246615171</v>
+        <v>0.2683336118934676</v>
       </c>
       <c r="J123" t="n">
-        <v>0.2502694452414289</v>
+        <v>0.1686948458664119</v>
       </c>
       <c r="K123" t="n">
-        <v>0.007399822468869388</v>
+        <v>0.00816954649053514</v>
       </c>
     </row>
     <row r="124">
@@ -6060,31 +6060,31 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4478489033645019</v>
+        <v>0.4989365171641111</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8091637489851564</v>
+        <v>0.9318134980276227</v>
       </c>
       <c r="F124" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09797217231243849</v>
+        <v>0.1138108125887811</v>
       </c>
       <c r="H124" t="n">
-        <v>0.5211245520040393</v>
+        <v>0.5817872647894546</v>
       </c>
       <c r="I124" t="n">
-        <v>0.04425725003238767</v>
+        <v>0.05387547891587019</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1349769184598699</v>
+        <v>0.1699761233758181</v>
       </c>
       <c r="K124" t="n">
-        <v>0.002813303261063993</v>
+        <v>0.003114930703304708</v>
       </c>
     </row>
     <row r="125">
@@ -6095,31 +6095,31 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2258</v>
+        <v>2178</v>
       </c>
       <c r="D125" t="n">
-        <v>0.01000781543552876</v>
+        <v>0.0101835282985121</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4910369460703805</v>
+        <v>0.4480044670635834</v>
       </c>
       <c r="F125" t="n">
-        <v>2258</v>
+        <v>2178</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1767132057575509</v>
+        <v>0.1709658453473821</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1084322077222168</v>
+        <v>0.1042370306095108</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1636537032900378</v>
+        <v>0.1314002370927483</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02569007209967822</v>
+        <v>0.0253484882414341</v>
       </c>
       <c r="K125" t="n">
-        <v>0.004687086562626064</v>
+        <v>0.004383390885777771</v>
       </c>
     </row>
     <row r="126">
@@ -6130,31 +6130,31 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6894</v>
+        <v>7357</v>
       </c>
       <c r="D126" t="n">
-        <v>1.811331584001891</v>
+        <v>1.852718654787168</v>
       </c>
       <c r="E126" t="n">
-        <v>3.989801691030152</v>
+        <v>4.182450557942502</v>
       </c>
       <c r="F126" t="n">
-        <v>6894</v>
+        <v>7357</v>
       </c>
       <c r="G126" t="n">
-        <v>0.583151217433624</v>
+        <v>0.6236571142217144</v>
       </c>
       <c r="H126" t="n">
-        <v>2.184353423537686</v>
+        <v>2.250610681483522</v>
       </c>
       <c r="I126" t="n">
-        <v>0.8250601749168709</v>
+        <v>0.8719956034328789</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3426587251015007</v>
+        <v>0.3752239808673039</v>
       </c>
       <c r="K126" t="n">
-        <v>0.01513723365496844</v>
+        <v>0.0175214052433148</v>
       </c>
     </row>
     <row r="127">
@@ -6165,31 +6165,31 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2258</v>
+        <v>2178</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6125314985401928</v>
+        <v>0.5866767746629193</v>
       </c>
       <c r="E127" t="n">
-        <v>1.385744319995865</v>
+        <v>1.319969973992556</v>
       </c>
       <c r="F127" t="n">
-        <v>2258</v>
+        <v>2178</v>
       </c>
       <c r="G127" t="n">
-        <v>0.2254025153815746</v>
+        <v>0.2176536294864491</v>
       </c>
       <c r="H127" t="n">
-        <v>0.7316517733270302</v>
+        <v>0.7036005373811349</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1903227814473212</v>
+        <v>0.1521602200809866</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2206980439368635</v>
+        <v>0.2292374001117423</v>
       </c>
       <c r="K127" t="n">
-        <v>0.004937389050610363</v>
+        <v>0.004710042383521795</v>
       </c>
     </row>
     <row r="128">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="D128" t="n">
-        <v>1.239750767243095</v>
+        <v>1.523620487540029</v>
       </c>
       <c r="E128" t="n">
-        <v>1.847805608995259</v>
+        <v>2.332948885043152</v>
       </c>
       <c r="F128" t="n">
-        <v>1512</v>
+        <v>1668</v>
       </c>
       <c r="G128" t="n">
-        <v>0.09849264926742762</v>
+        <v>0.1174146543489769</v>
       </c>
       <c r="H128" t="n">
-        <v>1.314006778178737</v>
+        <v>1.608858126448467</v>
       </c>
       <c r="I128" t="n">
-        <v>0.04492791544180363</v>
+        <v>0.05571467999834567</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3788246519397944</v>
+        <v>0.5378256939584389</v>
       </c>
       <c r="K128" t="n">
-        <v>0.003009711508639157</v>
+        <v>0.003360029542818666</v>
       </c>
     </row>
     <row r="129">
@@ -6235,11 +6235,11 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>21410</v>
+        <v>21727</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
-        <v>25.7087056459859</v>
+        <v>25.21973198675551</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -6260,31 +6260,31 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="D130" t="n">
-        <v>0.00710651371628046</v>
+        <v>0.005411689868196845</v>
       </c>
       <c r="E130" t="n">
-        <v>0.235935244942084</v>
+        <v>0.1698835019487888</v>
       </c>
       <c r="F130" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="G130" t="n">
-        <v>0.07686999440193176</v>
+        <v>0.05592184048146009</v>
       </c>
       <c r="H130" t="n">
-        <v>0.07522864663042128</v>
+        <v>0.05212460132315755</v>
       </c>
       <c r="I130" t="n">
-        <v>0.04475402622483671</v>
+        <v>0.03191768215037882</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02789619262330234</v>
+        <v>0.02192640060093254</v>
       </c>
       <c r="K130" t="n">
-        <v>0.002930107060819864</v>
+        <v>0.0020601786673069</v>
       </c>
     </row>
     <row r="131">
@@ -6295,31 +6295,31 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4129</v>
+        <v>3309</v>
       </c>
       <c r="D131" t="n">
-        <v>1.236796663026325</v>
+        <v>0.98938942712266</v>
       </c>
       <c r="E131" t="n">
-        <v>2.10156698198989</v>
+        <v>1.719051679014228</v>
       </c>
       <c r="F131" t="n">
-        <v>4129</v>
+        <v>3309</v>
       </c>
       <c r="G131" t="n">
-        <v>0.2348418119363487</v>
+        <v>0.1866899253800511</v>
       </c>
       <c r="H131" t="n">
-        <v>1.436724363593385</v>
+        <v>1.147939927410334</v>
       </c>
       <c r="I131" t="n">
-        <v>0.2259173020720482</v>
+        <v>0.1858261707238853</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1738840622128919</v>
+        <v>0.1738060688367113</v>
       </c>
       <c r="K131" t="n">
-        <v>0.007752633769996464</v>
+        <v>0.00618023076094687</v>
       </c>
     </row>
     <row r="132">
@@ -6330,31 +6330,31 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4636753883678466</v>
+        <v>0.3622820258606225</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9764869199134409</v>
+        <v>0.684344511013478</v>
       </c>
       <c r="F132" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="G132" t="n">
-        <v>0.09963948524091393</v>
+        <v>0.07158439001068473</v>
       </c>
       <c r="H132" t="n">
-        <v>0.5452799355844036</v>
+        <v>0.4198917975882068</v>
       </c>
       <c r="I132" t="n">
-        <v>0.05107437772676349</v>
+        <v>0.0368684217100963</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2685324411140755</v>
+        <v>0.1474737421376631</v>
       </c>
       <c r="K132" t="n">
-        <v>0.003106375341303647</v>
+        <v>0.002127223531715572</v>
       </c>
     </row>
     <row r="133">
@@ -6365,31 +6365,31 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2408</v>
+        <v>1632</v>
       </c>
       <c r="D133" t="n">
-        <v>0.01127320271916687</v>
+        <v>0.008227724931202829</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6295002379920334</v>
+        <v>0.3632571119815111</v>
       </c>
       <c r="F133" t="n">
-        <v>2408</v>
+        <v>1632</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1879025337984785</v>
+        <v>0.1290074859280139</v>
       </c>
       <c r="H133" t="n">
-        <v>0.2169194391462952</v>
+        <v>0.08445867139380425</v>
       </c>
       <c r="I133" t="n">
-        <v>0.1767635865835473</v>
+        <v>0.1131154638715088</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03001602401491255</v>
+        <v>0.02392922423314303</v>
       </c>
       <c r="K133" t="n">
-        <v>0.004999243654310703</v>
+        <v>0.003694033599458635</v>
       </c>
     </row>
     <row r="134">
@@ -6400,31 +6400,31 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7842</v>
+        <v>5891</v>
       </c>
       <c r="D134" t="n">
-        <v>1.904397831764072</v>
+        <v>1.512152072275057</v>
       </c>
       <c r="E134" t="n">
-        <v>4.625024378066882</v>
+        <v>3.556232442962937</v>
       </c>
       <c r="F134" t="n">
-        <v>7842</v>
+        <v>5891</v>
       </c>
       <c r="G134" t="n">
-        <v>0.788220897782594</v>
+        <v>0.4989511575549841</v>
       </c>
       <c r="H134" t="n">
-        <v>2.331815952435136</v>
+        <v>1.826965148793533</v>
       </c>
       <c r="I134" t="n">
-        <v>1.0377866870258</v>
+        <v>0.7815057076513767</v>
       </c>
       <c r="J134" t="n">
-        <v>0.4057319336570799</v>
+        <v>0.4017855565762147</v>
       </c>
       <c r="K134" t="n">
-        <v>0.01697782706469297</v>
+        <v>0.01243662158958614</v>
       </c>
     </row>
     <row r="135">
@@ -6435,31 +6435,31 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2408</v>
+        <v>1632</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6200337307527661</v>
+        <v>0.6021431258413941</v>
       </c>
       <c r="E135" t="n">
-        <v>1.447182053001598</v>
+        <v>1.224857993074693</v>
       </c>
       <c r="F135" t="n">
-        <v>2408</v>
+        <v>1632</v>
       </c>
       <c r="G135" t="n">
-        <v>0.2433489427203313</v>
+        <v>0.1650830205762759</v>
       </c>
       <c r="H135" t="n">
-        <v>0.7501303305616602</v>
+        <v>0.6902269375277683</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2067902020644397</v>
+        <v>0.1331955168861896</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2277064339723438</v>
+        <v>0.223333107191138</v>
       </c>
       <c r="K135" t="n">
-        <v>0.005401927512139082</v>
+        <v>0.003479433711618185</v>
       </c>
     </row>
     <row r="136">
@@ -6470,31 +6470,31 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="D136" t="n">
-        <v>1.431795570650138</v>
+        <v>1.102143964963034</v>
       </c>
       <c r="E136" t="n">
-        <v>2.17820203199517</v>
+        <v>1.700035346089862</v>
       </c>
       <c r="F136" t="n">
-        <v>1666</v>
+        <v>1156</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1051593550946563</v>
+        <v>0.07300187915097922</v>
       </c>
       <c r="H136" t="n">
-        <v>1.518455728539266</v>
+        <v>1.160419768071733</v>
       </c>
       <c r="I136" t="n">
-        <v>0.05305008357390761</v>
+        <v>0.03763564163818955</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4885241646552458</v>
+        <v>0.4199651263188571</v>
       </c>
       <c r="K136" t="n">
-        <v>0.003425593720749021</v>
+        <v>0.002305285423062742</v>
       </c>
     </row>
     <row r="137">
@@ -6505,11 +6505,11 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>20082</v>
+        <v>17130</v>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
-        <v>25.50049919483718</v>
+        <v>25.33816217177082</v>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
@@ -6530,31 +6530,31 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="D138" t="n">
-        <v>0.006477138726040721</v>
+        <v>0.00713383755646646</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2295993260340765</v>
+        <v>0.242759924964048</v>
       </c>
       <c r="F138" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="G138" t="n">
-        <v>0.08451143675483763</v>
+        <v>0.08776296221185476</v>
       </c>
       <c r="H138" t="n">
-        <v>0.06710910319816321</v>
+        <v>0.07186066603753716</v>
       </c>
       <c r="I138" t="n">
-        <v>0.04317352932412177</v>
+        <v>0.04352772200945765</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02473588357679546</v>
+        <v>0.02859416045248508</v>
       </c>
       <c r="K138" t="n">
-        <v>0.002651851042173803</v>
+        <v>0.002820404130034149</v>
       </c>
     </row>
     <row r="139">
@@ -6565,31 +6565,31 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4280</v>
+        <v>4271</v>
       </c>
       <c r="D139" t="n">
-        <v>1.366120693972334</v>
+        <v>1.380610781605355</v>
       </c>
       <c r="E139" t="n">
-        <v>2.352142455987632</v>
+        <v>2.294988550012931</v>
       </c>
       <c r="F139" t="n">
-        <v>4280</v>
+        <v>4271</v>
       </c>
       <c r="G139" t="n">
-        <v>0.2937411047751084</v>
+        <v>0.2782117296010256</v>
       </c>
       <c r="H139" t="n">
-        <v>1.580861209076829</v>
+        <v>1.593960826634429</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2769488025223836</v>
+        <v>0.2476834795670584</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1689005234511569</v>
+        <v>0.142484036507085</v>
       </c>
       <c r="K139" t="n">
-        <v>0.008168459869921207</v>
+        <v>0.008051271084696054</v>
       </c>
     </row>
     <row r="140">
@@ -6600,31 +6600,31 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4902592579601333</v>
+        <v>0.489556692307815</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8999140580417588</v>
+        <v>1.019272677018307</v>
       </c>
       <c r="F140" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1118104085326195</v>
+        <v>0.2406075615435839</v>
       </c>
       <c r="H140" t="n">
-        <v>0.5650249674217775</v>
+        <v>0.5692875445820391</v>
       </c>
       <c r="I140" t="n">
-        <v>0.04866224923171103</v>
+        <v>0.04820910026319325</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1636561307823285</v>
+        <v>0.1492289127781987</v>
       </c>
       <c r="K140" t="n">
-        <v>0.002768970909528434</v>
+        <v>0.002933578798547387</v>
       </c>
     </row>
     <row r="141">
@@ -6635,31 +6635,31 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1799</v>
+        <v>2059</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008257903740741313</v>
+        <v>0.009320553042925894</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3523167630191892</v>
+        <v>0.4004221799550578</v>
       </c>
       <c r="F141" t="n">
-        <v>1799</v>
+        <v>2059</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1385128871770576</v>
+        <v>0.1614247203106061</v>
       </c>
       <c r="H141" t="n">
-        <v>0.08674189017619938</v>
+        <v>0.0972046673996374</v>
       </c>
       <c r="I141" t="n">
-        <v>0.09765920101199299</v>
+        <v>0.1064740769797936</v>
       </c>
       <c r="J141" t="n">
-        <v>0.01650249829981476</v>
+        <v>0.02020524966064841</v>
       </c>
       <c r="K141" t="n">
-        <v>0.003677687607705593</v>
+        <v>0.00411465740762651</v>
       </c>
     </row>
     <row r="142">
@@ -6670,31 +6670,31 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6150</v>
+        <v>6570</v>
       </c>
       <c r="D142" t="n">
-        <v>1.826731094159186</v>
+        <v>1.676223142072558</v>
       </c>
       <c r="E142" t="n">
-        <v>3.745835157926194</v>
+        <v>3.637090554926544</v>
       </c>
       <c r="F142" t="n">
-        <v>6150</v>
+        <v>6570</v>
       </c>
       <c r="G142" t="n">
-        <v>0.5147550296969712</v>
+        <v>0.5466720697004348</v>
       </c>
       <c r="H142" t="n">
-        <v>2.156446315580979</v>
+        <v>2.0254330545431</v>
       </c>
       <c r="I142" t="n">
-        <v>0.6463593860389665</v>
+        <v>0.6732897480251268</v>
       </c>
       <c r="J142" t="n">
-        <v>0.3799169012345374</v>
+        <v>0.3396382655482739</v>
       </c>
       <c r="K142" t="n">
-        <v>0.01363364118151367</v>
+        <v>0.01406699337530881</v>
       </c>
     </row>
     <row r="143">
@@ -6705,31 +6705,31 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1799</v>
+        <v>2059</v>
       </c>
       <c r="D143" t="n">
-        <v>0.594250449561514</v>
+        <v>0.5664868885651231</v>
       </c>
       <c r="E143" t="n">
-        <v>1.2254359270446</v>
+        <v>1.22901790891774</v>
       </c>
       <c r="F143" t="n">
-        <v>1799</v>
+        <v>2059</v>
       </c>
       <c r="G143" t="n">
-        <v>0.181431187549606</v>
+        <v>0.2046496628317982</v>
       </c>
       <c r="H143" t="n">
-        <v>0.6911130511434749</v>
+        <v>0.6741939159110188</v>
       </c>
       <c r="I143" t="n">
-        <v>0.1104976197239012</v>
+        <v>0.1205087280832231</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2283147933194414</v>
+        <v>0.2135370817268267</v>
       </c>
       <c r="K143" t="n">
-        <v>0.004061740823090076</v>
+        <v>0.004428443731740117</v>
       </c>
     </row>
     <row r="144">
@@ -6740,31 +6740,31 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="D144" t="n">
-        <v>1.629280152264982</v>
+        <v>1.366675315075554</v>
       </c>
       <c r="E144" t="n">
-        <v>2.450600336072966</v>
+        <v>2.080698218080215</v>
       </c>
       <c r="F144" t="n">
-        <v>1478</v>
+        <v>1605</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1127818187233061</v>
+        <v>0.1163027437869459</v>
       </c>
       <c r="H144" t="n">
-        <v>1.706088796490803</v>
+        <v>1.449140558252111</v>
       </c>
       <c r="I144" t="n">
-        <v>0.05048195191193372</v>
+        <v>0.04961144307162613</v>
       </c>
       <c r="J144" t="n">
-        <v>0.5696375020779669</v>
+        <v>0.4530386927071959</v>
       </c>
       <c r="K144" t="n">
-        <v>0.003023642930202186</v>
+        <v>0.003199364407919347</v>
       </c>
     </row>
     <row r="145">
@@ -6775,11 +6775,11 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>20359</v>
+        <v>22337</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
-        <v>25.52421788813081</v>
+        <v>25.43814918329008</v>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
@@ -6800,31 +6800,31 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="D146" t="n">
-        <v>0.00450640101917088</v>
+        <v>0.005520680802874267</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1401602769037709</v>
+        <v>0.1738546449923888</v>
       </c>
       <c r="F146" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04092206060886383</v>
+        <v>0.05753528687637299</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0469598388299346</v>
+        <v>0.05396560614462942</v>
       </c>
       <c r="I146" t="n">
-        <v>0.02450798230711371</v>
+        <v>0.03217140049673617</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02081049990374595</v>
+        <v>0.02174217731226236</v>
       </c>
       <c r="K146" t="n">
-        <v>0.001875850022770464</v>
+        <v>0.002180486102588475</v>
       </c>
     </row>
     <row r="147">
@@ -6835,31 +6835,31 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2873</v>
+        <v>3427</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7932307173032314</v>
+        <v>1.027458161464892</v>
       </c>
       <c r="E147" t="n">
-        <v>1.353697389946319</v>
+        <v>1.760560847003944</v>
       </c>
       <c r="F147" t="n">
-        <v>2873</v>
+        <v>3427</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1349055729806423</v>
+        <v>0.1967084942152724</v>
       </c>
       <c r="H147" t="n">
-        <v>0.9265302172861993</v>
+        <v>1.190591325750574</v>
       </c>
       <c r="I147" t="n">
-        <v>0.1342245398554951</v>
+        <v>0.1796496090246364</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1371541218832135</v>
+        <v>0.1679425206966698</v>
       </c>
       <c r="K147" t="n">
-        <v>0.005394493113271892</v>
+        <v>0.006334263598546386</v>
       </c>
     </row>
     <row r="148">
@@ -6870,31 +6870,31 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2905769983772188</v>
+        <v>0.3871837545884773</v>
       </c>
       <c r="E148" t="n">
-        <v>0.530712270992808</v>
+        <v>0.7224817500682548</v>
       </c>
       <c r="F148" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0524302669800818</v>
+        <v>0.07576166570652276</v>
       </c>
       <c r="H148" t="n">
-        <v>0.339734579785727</v>
+        <v>0.4477608479792252</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02758653252385557</v>
+        <v>0.03704980027396232</v>
       </c>
       <c r="J148" t="n">
-        <v>0.103644878603518</v>
+        <v>0.1527756145223975</v>
       </c>
       <c r="K148" t="n">
-        <v>0.001896655885502696</v>
+        <v>0.002293160418048501</v>
       </c>
     </row>
     <row r="149">
@@ -6905,31 +6905,31 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="D149" t="n">
-        <v>0.008003748953342438</v>
+        <v>0.008253869251348078</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3869402620475739</v>
+        <v>0.461685081012547</v>
       </c>
       <c r="F149" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1280717253684998</v>
+        <v>0.2399569588014856</v>
       </c>
       <c r="H149" t="n">
-        <v>0.08118566288612783</v>
+        <v>0.08208943298086524</v>
       </c>
       <c r="I149" t="n">
-        <v>0.1422740031266585</v>
+        <v>0.1092108520679176</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02322827675379813</v>
+        <v>0.01814166374970227</v>
       </c>
       <c r="K149" t="n">
-        <v>0.003369053127244115</v>
+        <v>0.003253614995628595</v>
       </c>
     </row>
     <row r="150">
@@ -6940,31 +6940,31 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6147</v>
+        <v>5748</v>
       </c>
       <c r="D150" t="n">
-        <v>1.377381484257057</v>
+        <v>1.685673667117953</v>
       </c>
       <c r="E150" t="n">
-        <v>3.530668330029584</v>
+        <v>3.560557410935871</v>
       </c>
       <c r="F150" t="n">
-        <v>6147</v>
+        <v>5748</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5144001768203452</v>
+        <v>0.4883262660587206</v>
       </c>
       <c r="H150" t="n">
-        <v>1.704249842674471</v>
+        <v>1.993290533660911</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9171800967305899</v>
+        <v>0.6559033856028691</v>
       </c>
       <c r="J150" t="n">
-        <v>0.3461713687283918</v>
+        <v>0.3770171732176095</v>
       </c>
       <c r="K150" t="n">
-        <v>0.01327573566231877</v>
+        <v>0.01218531641643494</v>
       </c>
     </row>
     <row r="151">
@@ -6975,31 +6975,31 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4326006331248209</v>
+        <v>0.6324085940141231</v>
       </c>
       <c r="E151" t="n">
-        <v>1.045301861013286</v>
+        <v>1.250322234933265</v>
       </c>
       <c r="F151" t="n">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1667906867805868</v>
+        <v>0.1668921943055466</v>
       </c>
       <c r="H151" t="n">
-        <v>0.5227995320456102</v>
+        <v>0.7225614673225209</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1695399516029283</v>
+        <v>0.1287872730754316</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1728266525315121</v>
+        <v>0.2187576371943578</v>
       </c>
       <c r="K151" t="n">
-        <v>0.003580721095204353</v>
+        <v>0.003611836931668222</v>
       </c>
     </row>
     <row r="152">
@@ -7010,31 +7010,31 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6861231134971604</v>
+        <v>1.051748657366261</v>
       </c>
       <c r="E152" t="n">
-        <v>1.063415394979529</v>
+        <v>1.667131906026043</v>
       </c>
       <c r="F152" t="n">
-        <v>1016</v>
+        <v>1220</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05393863539211452</v>
+        <v>0.07639540394302458</v>
       </c>
       <c r="H152" t="n">
-        <v>0.7358289663679898</v>
+        <v>1.115246390691027</v>
       </c>
       <c r="I152" t="n">
-        <v>0.02833036682568491</v>
+        <v>0.03849176049698144</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2376413402380422</v>
+        <v>0.4274431895464659</v>
       </c>
       <c r="K152" t="n">
-        <v>0.002024845336563885</v>
+        <v>0.002414508024230599</v>
       </c>
     </row>
     <row r="153">
@@ -7045,11 +7045,11 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>19228</v>
+        <v>20583</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
-        <v>25.09899031114765</v>
+        <v>25.47505717689637</v>
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
@@ -7070,31 +7070,31 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="D154" t="n">
-        <v>0.007842844119295478</v>
+        <v>0.006101628881879151</v>
       </c>
       <c r="E154" t="n">
-        <v>0.2661122720455751</v>
+        <v>0.194774477975443</v>
       </c>
       <c r="F154" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="G154" t="n">
-        <v>0.09100327407941222</v>
+        <v>0.06907495530322194</v>
       </c>
       <c r="H154" t="n">
-        <v>0.08292035048361868</v>
+        <v>0.05758234031964093</v>
       </c>
       <c r="I154" t="n">
-        <v>0.04871111607644707</v>
+        <v>0.03649201791267842</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03056769946124405</v>
+        <v>0.02272745664231479</v>
       </c>
       <c r="K154" t="n">
-        <v>0.003412619465962052</v>
+        <v>0.002292671124450862</v>
       </c>
     </row>
     <row r="155">
@@ -7105,31 +7105,31 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4851</v>
+        <v>3824</v>
       </c>
       <c r="D155" t="n">
-        <v>1.637595844804309</v>
+        <v>1.20427570794709</v>
       </c>
       <c r="E155" t="n">
-        <v>2.620111438911408</v>
+        <v>2.055409911903553</v>
       </c>
       <c r="F155" t="n">
-        <v>4851</v>
+        <v>3824</v>
       </c>
       <c r="G155" t="n">
-        <v>0.2825609957799315</v>
+        <v>0.2370756074087694</v>
       </c>
       <c r="H155" t="n">
-        <v>1.874426484690048</v>
+        <v>1.389473998802714</v>
       </c>
       <c r="I155" t="n">
-        <v>0.2856729323975742</v>
+        <v>0.2298081007320434</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1419215379282832</v>
+        <v>0.1703138081356883</v>
       </c>
       <c r="K155" t="n">
-        <v>0.009134137770161033</v>
+        <v>0.007161901099607348</v>
       </c>
     </row>
     <row r="156">
@@ -7140,31 +7140,31 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5249585082056001</v>
+        <v>0.4339891347335652</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9375478109577671</v>
+        <v>0.7875977460062131</v>
       </c>
       <c r="F156" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="G156" t="n">
-        <v>0.117685139994137</v>
+        <v>0.08956812194082886</v>
       </c>
       <c r="H156" t="n">
-        <v>0.6183158677304164</v>
+        <v>0.4977067124564201</v>
       </c>
       <c r="I156" t="n">
-        <v>0.05428660742472857</v>
+        <v>0.04204396053683013</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1333409454673529</v>
+        <v>0.1486814472591504</v>
       </c>
       <c r="K156" t="n">
-        <v>0.003598062437959015</v>
+        <v>0.002429674845188856</v>
       </c>
     </row>
     <row r="157">
@@ -7175,31 +7175,31 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2825</v>
+        <v>1666</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01266665034927428</v>
+        <v>0.008241313393227756</v>
       </c>
       <c r="E157" t="n">
-        <v>0.617258314974606</v>
+        <v>0.3388244090601802</v>
       </c>
       <c r="F157" t="n">
-        <v>2825</v>
+        <v>1666</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2214788270648569</v>
+        <v>0.1326009213225916</v>
       </c>
       <c r="H157" t="n">
-        <v>0.1361829333472997</v>
+        <v>0.08121668407693505</v>
       </c>
       <c r="I157" t="n">
-        <v>0.2063648160547018</v>
+        <v>0.09505792078562081</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03256172919645905</v>
+        <v>0.01767041545826942</v>
       </c>
       <c r="K157" t="n">
-        <v>0.005912939901463687</v>
+        <v>0.003343521617352962</v>
       </c>
     </row>
     <row r="158">
@@ -7210,31 +7210,31 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>9124</v>
+        <v>5471</v>
       </c>
       <c r="D158" t="n">
-        <v>2.197707612765953</v>
+        <v>1.596694321371615</v>
       </c>
       <c r="E158" t="n">
-        <v>5.136425605975091</v>
+        <v>3.335674113011919</v>
       </c>
       <c r="F158" t="n">
-        <v>9124</v>
+        <v>5471</v>
       </c>
       <c r="G158" t="n">
-        <v>0.7713908539153636</v>
+        <v>0.464013222954236</v>
       </c>
       <c r="H158" t="n">
-        <v>2.69689285045024</v>
+        <v>1.888052460039034</v>
       </c>
       <c r="I158" t="n">
-        <v>1.214777989196591</v>
+        <v>0.5717864908510819</v>
       </c>
       <c r="J158" t="n">
-        <v>0.3816431516315788</v>
+        <v>0.3679100747685879</v>
       </c>
       <c r="K158" t="n">
-        <v>0.01994684734381735</v>
+        <v>0.01189341465942562</v>
       </c>
     </row>
     <row r="159">
@@ -7245,31 +7245,31 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2825</v>
+        <v>1666</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6750153227476403</v>
+        <v>0.5428915141383186</v>
       </c>
       <c r="E159" t="n">
-        <v>1.584497909992933</v>
+        <v>1.131301161949523</v>
       </c>
       <c r="F159" t="n">
-        <v>2825</v>
+        <v>1666</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2834012977546081</v>
+        <v>0.1690702094929293</v>
       </c>
       <c r="H159" t="n">
-        <v>0.8253831613110378</v>
+        <v>0.6313441089587286</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2400871313875541</v>
+        <v>0.1107998689403757</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2136909714899957</v>
+        <v>0.2067996474215761</v>
       </c>
       <c r="K159" t="n">
-        <v>0.006165147176943719</v>
+        <v>0.003675175830721855</v>
       </c>
     </row>
     <row r="160">
@@ -7280,31 +7280,31 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="D160" t="n">
-        <v>1.615140529465862</v>
+        <v>1.226430603652261</v>
       </c>
       <c r="E160" t="n">
-        <v>2.447510372032411</v>
+        <v>1.84266329696402</v>
       </c>
       <c r="F160" t="n">
-        <v>1927</v>
+        <v>1280</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1208866776432842</v>
+        <v>0.09365413105115294</v>
       </c>
       <c r="H160" t="n">
-        <v>1.710877428995445</v>
+        <v>1.293668680125847</v>
       </c>
       <c r="I160" t="n">
-        <v>0.0559068558504805</v>
+        <v>0.04339481040369719</v>
       </c>
       <c r="J160" t="n">
-        <v>0.5450240666978061</v>
+        <v>0.4018804656807333</v>
       </c>
       <c r="K160" t="n">
-        <v>0.003905754303559661</v>
+        <v>0.002564122900366783</v>
       </c>
     </row>
     <row r="161">
@@ -7315,11 +7315,11 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>21515</v>
+        <v>21632</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
-        <v>25.25736249808688</v>
+        <v>25.14381222613156</v>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
@@ -7340,31 +7340,31 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="D162" t="n">
-        <v>0.004993075039237738</v>
+        <v>0.008727683103643358</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1558040920644999</v>
+        <v>0.3267758509609848</v>
       </c>
       <c r="F162" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05153202242217958</v>
+        <v>0.07029923074878752</v>
       </c>
       <c r="H162" t="n">
-        <v>0.04918794822879136</v>
+        <v>0.1865950464271009</v>
       </c>
       <c r="I162" t="n">
-        <v>0.02746703836601228</v>
+        <v>0.03362444613594562</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0200242402497679</v>
+        <v>0.02363885764498264</v>
       </c>
       <c r="K162" t="n">
-        <v>0.001985175651498139</v>
+        <v>0.003254996030591428</v>
       </c>
     </row>
     <row r="163">
@@ -7375,31 +7375,31 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3188</v>
+        <v>4447</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9914660955546424</v>
+        <v>1.326162460027263</v>
       </c>
       <c r="E163" t="n">
-        <v>1.664223941043019</v>
+        <v>2.090082939015701</v>
       </c>
       <c r="F163" t="n">
-        <v>3188</v>
+        <v>4447</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1802307579200715</v>
+        <v>0.2007034006528556</v>
       </c>
       <c r="H163" t="n">
-        <v>1.144369908724912</v>
+        <v>1.535723702516407</v>
       </c>
       <c r="I163" t="n">
-        <v>0.1755517764249817</v>
+        <v>0.1964078957680613</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1407492847647518</v>
+        <v>0.1236677347915247</v>
       </c>
       <c r="K163" t="n">
-        <v>0.005971660022623837</v>
+        <v>0.008282700669951737</v>
       </c>
     </row>
     <row r="164">
@@ -7410,31 +7410,31 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3437268215930089</v>
+        <v>0.486368706333451</v>
       </c>
       <c r="E164" t="n">
-        <v>0.6243168790824711</v>
+        <v>0.833540169056505</v>
       </c>
       <c r="F164" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06645204417873174</v>
+        <v>0.09067140100523829</v>
       </c>
       <c r="H164" t="n">
-        <v>0.3985637449659407</v>
+        <v>0.5727495918981731</v>
       </c>
       <c r="I164" t="n">
-        <v>0.03168580820783973</v>
+        <v>0.03652586136013269</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1195297986268997</v>
+        <v>0.1200852359179407</v>
       </c>
       <c r="K164" t="n">
-        <v>0.002098690601997077</v>
+        <v>0.003418912529014051</v>
       </c>
     </row>
     <row r="165">
@@ -7445,31 +7445,31 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1562</v>
+        <v>3710</v>
       </c>
       <c r="D165" t="n">
-        <v>0.007581125712022185</v>
+        <v>0.01685060979798436</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3414238739060238</v>
+        <v>1.010197566007264</v>
       </c>
       <c r="F165" t="n">
-        <v>1562</v>
+        <v>3710</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1259780403925106</v>
+        <v>0.2934424582635984</v>
       </c>
       <c r="H165" t="n">
-        <v>0.07742678851354867</v>
+        <v>0.1803591407369822</v>
       </c>
       <c r="I165" t="n">
-        <v>0.1096724541857839</v>
+        <v>0.4609882665099576</v>
       </c>
       <c r="J165" t="n">
-        <v>0.01685663661919534</v>
+        <v>0.0474599696462974</v>
       </c>
       <c r="K165" t="n">
-        <v>0.003275674418546259</v>
+        <v>0.007367057376541197</v>
       </c>
     </row>
     <row r="166">
@@ -7480,31 +7480,31 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5453</v>
+        <v>10944</v>
       </c>
       <c r="D166" t="n">
-        <v>1.314035493414849</v>
+        <v>2.712228566291742</v>
       </c>
       <c r="E166" t="n">
-        <v>3.105007534963079</v>
+        <v>6.365210682968609</v>
       </c>
       <c r="F166" t="n">
-        <v>5453</v>
+        <v>10944</v>
       </c>
       <c r="G166" t="n">
-        <v>0.457817648886703</v>
+        <v>0.9250986673869193</v>
       </c>
       <c r="H166" t="n">
-        <v>1.607529501081444</v>
+        <v>3.317896358435974</v>
       </c>
       <c r="I166" t="n">
-        <v>0.7052669837139547</v>
+        <v>1.670765584218316</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2911365266190842</v>
+        <v>0.3623838785570115</v>
       </c>
       <c r="K166" t="n">
-        <v>0.01193594571668655</v>
+        <v>0.02363998792134225</v>
       </c>
     </row>
     <row r="167">
@@ -7515,31 +7515,31 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1562</v>
+        <v>3710</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4267313742311671</v>
+        <v>0.8503699220018461</v>
       </c>
       <c r="E167" t="n">
-        <v>1.08141699898988</v>
+        <v>2.173436988028698</v>
       </c>
       <c r="F167" t="n">
-        <v>1562</v>
+        <v>3710</v>
       </c>
       <c r="G167" t="n">
-        <v>0.2620684367138892</v>
+        <v>0.4869381245225668</v>
       </c>
       <c r="H167" t="n">
-        <v>0.5117107605328783</v>
+        <v>1.045782517525367</v>
       </c>
       <c r="I167" t="n">
-        <v>0.1275295458035544</v>
+        <v>0.4056346244178712</v>
       </c>
       <c r="J167" t="n">
-        <v>0.167689525638707</v>
+        <v>0.2055875711375847</v>
       </c>
       <c r="K167" t="n">
-        <v>0.003573748981580138</v>
+        <v>0.007757192011922598</v>
       </c>
     </row>
     <row r="168">
@@ -7550,31 +7550,31 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8738945000804961</v>
+        <v>1.24061116471421</v>
       </c>
       <c r="E168" t="n">
-        <v>1.361601250013337</v>
+        <v>1.74690547096543</v>
       </c>
       <c r="F168" t="n">
-        <v>1123</v>
+        <v>1863</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06805339572019875</v>
+        <v>0.09405860339757055</v>
       </c>
       <c r="H168" t="n">
-        <v>0.9294627644121647</v>
+        <v>1.331277153803967</v>
       </c>
       <c r="I168" t="n">
-        <v>0.03248298575635999</v>
+        <v>0.03792536456603557</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3230972210876644</v>
+        <v>0.2694063738454133</v>
       </c>
       <c r="K168" t="n">
-        <v>0.00220145215280354</v>
+        <v>0.00361023738514632</v>
       </c>
     </row>
     <row r="169">
@@ -7585,11 +7585,11 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>16186</v>
+        <v>20902</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="n">
-        <v>25.41743866598699</v>
+        <v>25.84259792405646</v>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
@@ -7610,31 +7610,31 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="D170" t="n">
-        <v>0.004081860184669495</v>
+        <v>0.006728651351295412</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1154167290078476</v>
+        <v>0.3261549778981134</v>
       </c>
       <c r="F170" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="G170" t="n">
-        <v>0.03653077874332666</v>
+        <v>0.06938150955829769</v>
       </c>
       <c r="H170" t="n">
-        <v>0.03888149606063962</v>
+        <v>0.06744071666616946</v>
       </c>
       <c r="I170" t="n">
-        <v>0.01871684624347836</v>
+        <v>0.04039482877124101</v>
       </c>
       <c r="J170" t="n">
-        <v>0.01519402791745961</v>
+        <v>0.1385149306152016</v>
       </c>
       <c r="K170" t="n">
-        <v>0.001628021826036274</v>
+        <v>0.002719652955420315</v>
       </c>
     </row>
     <row r="171">
@@ -7645,31 +7645,31 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2623</v>
+        <v>4056</v>
       </c>
       <c r="D171" t="n">
-        <v>0.773176668677479</v>
+        <v>1.207675999612547</v>
       </c>
       <c r="E171" t="n">
-        <v>1.24864335602615</v>
+        <v>2.069368793978356</v>
       </c>
       <c r="F171" t="n">
-        <v>2623</v>
+        <v>4056</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1190840816125274</v>
+        <v>0.2294923502486199</v>
       </c>
       <c r="H171" t="n">
-        <v>0.8936146919149905</v>
+        <v>1.403693653992377</v>
       </c>
       <c r="I171" t="n">
-        <v>0.1146872654790059</v>
+        <v>0.2320984012912959</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1019852675963193</v>
+        <v>0.1735926638357341</v>
       </c>
       <c r="K171" t="n">
-        <v>0.005003162776120007</v>
+        <v>0.00756366946734488</v>
       </c>
     </row>
     <row r="172">
@@ -7680,31 +7680,31 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="D172" t="n">
-        <v>0.2834313015919179</v>
+        <v>0.409203598741442</v>
       </c>
       <c r="E172" t="n">
-        <v>0.4848962150281295</v>
+        <v>0.7849084290210158</v>
       </c>
       <c r="F172" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="G172" t="n">
-        <v>0.04691622511018068</v>
+        <v>0.08882788452319801</v>
       </c>
       <c r="H172" t="n">
-        <v>0.3260949073592201</v>
+        <v>0.4835346238687634</v>
       </c>
       <c r="I172" t="n">
-        <v>0.02082111523486674</v>
+        <v>0.04631026147399098</v>
       </c>
       <c r="J172" t="n">
-        <v>0.08458913292270154</v>
+        <v>0.1550560058094561</v>
       </c>
       <c r="K172" t="n">
-        <v>0.001682691159658134</v>
+        <v>0.0027953787939623</v>
       </c>
     </row>
     <row r="173">
@@ -7715,31 +7715,31 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1504</v>
+        <v>2234</v>
       </c>
       <c r="D173" t="n">
-        <v>0.007191999815404415</v>
+        <v>0.01089589449111372</v>
       </c>
       <c r="E173" t="n">
-        <v>0.3209754630224779</v>
+        <v>0.5167785350931808</v>
       </c>
       <c r="F173" t="n">
-        <v>1504</v>
+        <v>2234</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1158573316643015</v>
+        <v>0.1773565275361761</v>
       </c>
       <c r="H173" t="n">
-        <v>0.07346380664967</v>
+        <v>0.1105745154200122</v>
       </c>
       <c r="I173" t="n">
-        <v>0.1048762071877718</v>
+        <v>0.1803212108789012</v>
       </c>
       <c r="J173" t="n">
-        <v>0.01573626941535622</v>
+        <v>0.03184049541596323</v>
       </c>
       <c r="K173" t="n">
-        <v>0.003082058159634471</v>
+        <v>0.004422878962941468</v>
       </c>
     </row>
     <row r="174">
@@ -7750,31 +7750,31 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>5252</v>
+        <v>8097</v>
       </c>
       <c r="D174" t="n">
-        <v>1.444163434789516</v>
+        <v>1.748360925819725</v>
       </c>
       <c r="E174" t="n">
-        <v>3.058879231917672</v>
+        <v>4.550386051996611</v>
       </c>
       <c r="F174" t="n">
-        <v>5252</v>
+        <v>8097</v>
       </c>
       <c r="G174" t="n">
-        <v>0.4412017440190539</v>
+        <v>0.6816258870530874</v>
       </c>
       <c r="H174" t="n">
-        <v>1.721458760672249</v>
+        <v>2.185308840125799</v>
       </c>
       <c r="I174" t="n">
-        <v>0.6212294555734843</v>
+        <v>1.18499742122367</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2335861563915387</v>
+        <v>0.4333794340491295</v>
       </c>
       <c r="K174" t="n">
-        <v>0.01138398912735283</v>
+        <v>0.01722653931938112</v>
       </c>
     </row>
     <row r="175">
@@ -7785,31 +7785,31 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1504</v>
+        <v>2234</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4745686375536025</v>
+        <v>0.5260598813183606</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9682277530664578</v>
+        <v>1.343415472074412</v>
       </c>
       <c r="F175" t="n">
-        <v>1504</v>
+        <v>2234</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1493223083671182</v>
+        <v>0.2273715729825199</v>
       </c>
       <c r="H175" t="n">
-        <v>0.5535870534367859</v>
+        <v>0.648715432616882</v>
       </c>
       <c r="I175" t="n">
-        <v>0.1214096753392369</v>
+        <v>0.2187137104338035</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1321114560123533</v>
+        <v>0.2301054332638159</v>
       </c>
       <c r="K175" t="n">
-        <v>0.003242014092393219</v>
+        <v>0.005234757787548006</v>
       </c>
     </row>
     <row r="176">
@@ -7820,31 +7820,31 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="D176" t="n">
-        <v>0.5893000513315201</v>
+        <v>1.157059352379292</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8784536180319265</v>
+        <v>1.828701980994083</v>
       </c>
       <c r="F176" t="n">
-        <v>906</v>
+        <v>1513</v>
       </c>
       <c r="G176" t="n">
-        <v>0.04778613150119781</v>
+        <v>0.09137117932550609</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6320630501722917</v>
+        <v>1.232814734452404</v>
       </c>
       <c r="I176" t="n">
-        <v>0.02126277110073715</v>
+        <v>0.04757441603578627</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1705892889294773</v>
+        <v>0.445108947576955</v>
       </c>
       <c r="K176" t="n">
-        <v>0.001785416156053543</v>
+        <v>0.003044347162358463</v>
       </c>
     </row>
     <row r="177">
@@ -7855,11 +7855,11 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>18635</v>
+        <v>19816</v>
       </c>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
-        <v>25.22874373674858</v>
+        <v>25.26280625769868</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
@@ -7880,31 +7880,31 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="D178" t="n">
-        <v>0.005963778938166797</v>
+        <v>0.007650409708730876</v>
       </c>
       <c r="E178" t="n">
-        <v>0.3317356969928369</v>
+        <v>0.2425882150419056</v>
       </c>
       <c r="F178" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08243548532482237</v>
+        <v>0.08344502188265324</v>
       </c>
       <c r="H178" t="n">
-        <v>0.06130845320876688</v>
+        <v>0.07890047424007207</v>
       </c>
       <c r="I178" t="n">
-        <v>0.04430857358966023</v>
+        <v>0.04105583194177598</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1344364036340266</v>
+        <v>0.02665739017538726</v>
       </c>
       <c r="K178" t="n">
-        <v>0.00241279520560056</v>
+        <v>0.003237016266211867</v>
       </c>
     </row>
     <row r="179">
@@ -7915,31 +7915,31 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>4039</v>
+        <v>4549</v>
       </c>
       <c r="D179" t="n">
-        <v>1.277967274538241</v>
+        <v>1.415369030553848</v>
       </c>
       <c r="E179" t="n">
-        <v>2.252151238033548</v>
+        <v>2.451263540075161</v>
       </c>
       <c r="F179" t="n">
-        <v>4039</v>
+        <v>4549</v>
       </c>
       <c r="G179" t="n">
-        <v>0.2871059632161632</v>
+        <v>0.2488238216610625</v>
       </c>
       <c r="H179" t="n">
-        <v>1.480040762573481</v>
+        <v>1.637087332666852</v>
       </c>
       <c r="I179" t="n">
-        <v>0.2882859639357775</v>
+        <v>0.2500189546262845</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1669670860283077</v>
+        <v>0.281111755524762</v>
       </c>
       <c r="K179" t="n">
-        <v>0.007578638498671353</v>
+        <v>0.008478427422232926</v>
       </c>
     </row>
     <row r="180">
@@ -7950,31 +7950,31 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4386162525042892</v>
+        <v>0.4992184382863343</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8285346629563719</v>
+        <v>0.8989778310060501</v>
       </c>
       <c r="F180" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1049442840740085</v>
+        <v>0.1079849718371406</v>
       </c>
       <c r="H180" t="n">
-        <v>0.5063814289169386</v>
+        <v>0.587136251735501</v>
       </c>
       <c r="I180" t="n">
-        <v>0.05054140568245202</v>
+        <v>0.04575531010050327</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1568842795677483</v>
+        <v>0.144567183800973</v>
       </c>
       <c r="K180" t="n">
-        <v>0.002501633483916521</v>
+        <v>0.003410343430005014</v>
       </c>
     </row>
     <row r="181">
@@ -7985,31 +7985,31 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1526</v>
+        <v>3046</v>
       </c>
       <c r="D181" t="n">
-        <v>0.00715272908564657</v>
+        <v>0.01400136202573776</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2960564689710736</v>
+        <v>0.7044979729689658</v>
       </c>
       <c r="F181" t="n">
-        <v>1526</v>
+        <v>3046</v>
       </c>
       <c r="G181" t="n">
-        <v>0.117686978308484</v>
+        <v>0.2383089758222923</v>
       </c>
       <c r="H181" t="n">
-        <v>0.07284495036583394</v>
+        <v>0.1470913512166589</v>
       </c>
       <c r="I181" t="n">
-        <v>0.07833457214292139</v>
+        <v>0.2601059342268854</v>
       </c>
       <c r="J181" t="n">
-        <v>0.01620018645189703</v>
+        <v>0.03645884583238512</v>
       </c>
       <c r="K181" t="n">
-        <v>0.00322427018545568</v>
+        <v>0.005967459408566356</v>
       </c>
     </row>
     <row r="182">
@@ -8020,31 +8020,31 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>5298</v>
+        <v>10206</v>
       </c>
       <c r="D182" t="n">
-        <v>1.609961631358601</v>
+        <v>2.549392304266803</v>
       </c>
       <c r="E182" t="n">
-        <v>3.318541003973223</v>
+        <v>6.003255455987528</v>
       </c>
       <c r="F182" t="n">
-        <v>5298</v>
+        <v>10206</v>
       </c>
       <c r="G182" t="n">
-        <v>0.4475948008475825</v>
+        <v>0.86727950128261</v>
       </c>
       <c r="H182" t="n">
-        <v>1.890195132815279</v>
+        <v>3.115335103939287</v>
       </c>
       <c r="I182" t="n">
-        <v>0.5730208576424047</v>
+        <v>1.535224886611104</v>
       </c>
       <c r="J182" t="n">
-        <v>0.3663243324263021</v>
+        <v>0.4034155652625486</v>
       </c>
       <c r="K182" t="n">
-        <v>0.01167179795447737</v>
+        <v>0.02163400268182158</v>
       </c>
     </row>
     <row r="183">
@@ -8055,31 +8055,31 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1526</v>
+        <v>3046</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4829447481315583</v>
+        <v>0.7539330656873062</v>
       </c>
       <c r="E183" t="n">
-        <v>1.022549547022209</v>
+        <v>1.890934713999741</v>
       </c>
       <c r="F183" t="n">
-        <v>1526</v>
+        <v>3046</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1526023707119748</v>
+        <v>0.4221824373817071</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5646852729842067</v>
+        <v>0.9159696426941082</v>
       </c>
       <c r="I183" t="n">
-        <v>0.0893234855029732</v>
+        <v>0.3078560380963609</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2039482152322307</v>
+        <v>0.2206237111240625</v>
       </c>
       <c r="K183" t="n">
-        <v>0.003529044101014733</v>
+        <v>0.006353992852382362</v>
       </c>
     </row>
     <row r="184">
@@ -8090,31 +8090,31 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="D184" t="n">
-        <v>1.319062065682374</v>
+        <v>1.335735093220137</v>
       </c>
       <c r="E184" t="n">
-        <v>2.1640177880181</v>
+        <v>2.060412426013499</v>
       </c>
       <c r="F184" t="n">
-        <v>1344</v>
+        <v>1834</v>
       </c>
       <c r="G184" t="n">
-        <v>0.2161813239799812</v>
+        <v>0.1086724139750004</v>
       </c>
       <c r="H184" t="n">
-        <v>1.388546837260947</v>
+        <v>1.424743136391044</v>
       </c>
       <c r="I184" t="n">
-        <v>0.05126351502258331</v>
+        <v>0.0477987373014912</v>
       </c>
       <c r="J184" t="n">
-        <v>0.4975068293279037</v>
+        <v>0.4650802192045376</v>
       </c>
       <c r="K184" t="n">
-        <v>0.002732737921178341</v>
+        <v>0.003568083979189396</v>
       </c>
     </row>
     <row r="185">
@@ -8125,11 +8125,11 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>21345</v>
+        <v>21084</v>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
-        <v>25.05129610700533</v>
+        <v>25.71206705376972</v>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
@@ -8150,31 +8150,31 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="D186" t="n">
-        <v>0.007882969570346177</v>
+        <v>0.005898793577216566</v>
       </c>
       <c r="E186" t="n">
-        <v>0.3614196060225368</v>
+        <v>0.1900602109963074</v>
       </c>
       <c r="F186" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1942084116162732</v>
+        <v>0.0647734523518011</v>
       </c>
       <c r="H186" t="n">
-        <v>0.08246531535405666</v>
+        <v>0.05804845062084496</v>
       </c>
       <c r="I186" t="n">
-        <v>0.04363286274019629</v>
+        <v>0.03498944942839444</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02822716464288533</v>
+        <v>0.02334011509083211</v>
       </c>
       <c r="K186" t="n">
-        <v>0.003353684092871845</v>
+        <v>0.002288845949806273</v>
       </c>
     </row>
     <row r="187">
@@ -8185,31 +8185,31 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4556</v>
+        <v>3803</v>
       </c>
       <c r="D187" t="n">
-        <v>1.354605119675398</v>
+        <v>1.29692419373896</v>
       </c>
       <c r="E187" t="n">
-        <v>2.208794228965417</v>
+        <v>2.099133395007811</v>
       </c>
       <c r="F187" t="n">
-        <v>4556</v>
+        <v>3803</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2365951566025615</v>
+        <v>0.2189635807881132</v>
       </c>
       <c r="H187" t="n">
-        <v>1.572627756162547</v>
+        <v>1.4815696652513</v>
       </c>
       <c r="I187" t="n">
-        <v>0.2260179670993239</v>
+        <v>0.2219020859338343</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1401434059953317</v>
+        <v>0.1479328008135781</v>
       </c>
       <c r="K187" t="n">
-        <v>0.008631973993033171</v>
+        <v>0.007037232746370137</v>
       </c>
     </row>
     <row r="188">
@@ -8220,31 +8220,31 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="D188" t="n">
-        <v>0.473509554634802</v>
+        <v>0.4086304877419025</v>
       </c>
       <c r="E188" t="n">
-        <v>0.8561104079708457</v>
+        <v>0.7315822020173073</v>
       </c>
       <c r="F188" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1024088080739602</v>
+        <v>0.08157511532772332</v>
       </c>
       <c r="H188" t="n">
-        <v>0.5651150733465329</v>
+        <v>0.4723938563838601</v>
       </c>
       <c r="I188" t="n">
-        <v>0.05047180328983814</v>
+        <v>0.04017075779847801</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1242539520608261</v>
+        <v>0.1278717734385282</v>
       </c>
       <c r="K188" t="n">
-        <v>0.003626379068009555</v>
+        <v>0.002388437744230032</v>
       </c>
     </row>
     <row r="189">
@@ -8255,31 +8255,31 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3557</v>
+        <v>1816</v>
       </c>
       <c r="D189" t="n">
-        <v>0.01592850615270436</v>
+        <v>0.008694970747455955</v>
       </c>
       <c r="E189" t="n">
-        <v>0.8973691569408402</v>
+        <v>0.3799055339768529</v>
       </c>
       <c r="F189" t="n">
-        <v>3557</v>
+        <v>1816</v>
       </c>
       <c r="G189" t="n">
-        <v>0.278318821452558</v>
+        <v>0.1423845095559955</v>
       </c>
       <c r="H189" t="n">
-        <v>0.1723825589288026</v>
+        <v>0.08821965870447457</v>
       </c>
       <c r="I189" t="n">
-        <v>0.367788223316893</v>
+        <v>0.1153912550071254</v>
       </c>
       <c r="J189" t="n">
-        <v>0.05252169247251004</v>
+        <v>0.02061291504651308</v>
       </c>
       <c r="K189" t="n">
-        <v>0.007402075571008027</v>
+        <v>0.003545398474670947</v>
       </c>
     </row>
     <row r="190">
@@ -8290,31 +8290,31 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>11144</v>
+        <v>6276</v>
       </c>
       <c r="D190" t="n">
-        <v>2.49327039939817</v>
+        <v>1.75438244221732</v>
       </c>
       <c r="E190" t="n">
-        <v>6.379226377932355</v>
+        <v>3.739765850012191</v>
       </c>
       <c r="F190" t="n">
-        <v>11144</v>
+        <v>6276</v>
       </c>
       <c r="G190" t="n">
-        <v>0.9492984426906332</v>
+        <v>0.5280363988131285</v>
       </c>
       <c r="H190" t="n">
-        <v>3.110852676793002</v>
+        <v>2.088555813184939</v>
       </c>
       <c r="I190" t="n">
-        <v>1.75460003898479</v>
+        <v>0.7326231087790802</v>
       </c>
       <c r="J190" t="n">
-        <v>0.4765643156133592</v>
+        <v>0.340273771667853</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0241699330508709</v>
+        <v>0.01335283962544054</v>
       </c>
     </row>
     <row r="191">
@@ -8325,31 +8325,31 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3557</v>
+        <v>1816</v>
       </c>
       <c r="D191" t="n">
-        <v>0.7238699762383476</v>
+        <v>0.5323915455956012</v>
       </c>
       <c r="E191" t="n">
-        <v>2.11740638804622</v>
+        <v>1.285690527991392</v>
       </c>
       <c r="F191" t="n">
-        <v>3557</v>
+        <v>1816</v>
       </c>
       <c r="G191" t="n">
-        <v>0.3604217256652191</v>
+        <v>0.2982148473383859</v>
       </c>
       <c r="H191" t="n">
-        <v>0.9166102322051302</v>
+        <v>0.631030707154423</v>
       </c>
       <c r="I191" t="n">
-        <v>0.4416067693382502</v>
+        <v>0.1357580228941515</v>
       </c>
       <c r="J191" t="n">
-        <v>0.3705754467519</v>
+        <v>0.2062519793398678</v>
       </c>
       <c r="K191" t="n">
-        <v>0.007730747223831713</v>
+        <v>0.003858130541630089</v>
       </c>
     </row>
     <row r="192">
@@ -8360,31 +8360,31 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="D192" t="n">
-        <v>1.265718835522421</v>
+        <v>1.127587478142232</v>
       </c>
       <c r="E192" t="n">
-        <v>1.853290249011479</v>
+        <v>1.720443626050837</v>
       </c>
       <c r="F192" t="n">
-        <v>1909</v>
+        <v>1288</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1046910316217691</v>
+        <v>0.08439342165365815</v>
       </c>
       <c r="H192" t="n">
-        <v>1.357276626164094</v>
+        <v>1.193916387157515</v>
       </c>
       <c r="I192" t="n">
-        <v>0.04902012494858354</v>
+        <v>0.04142791300546378</v>
       </c>
       <c r="J192" t="n">
-        <v>0.3280308662215248</v>
+        <v>0.3906077648280188</v>
       </c>
       <c r="K192" t="n">
-        <v>0.00371377170085907</v>
+        <v>0.002560994122177362</v>
       </c>
     </row>
     <row r="193">
@@ -8395,11 +8395,11 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>22290</v>
+        <v>19008</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
-        <v>25.73054004099686</v>
+        <v>25.67450976115651</v>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
@@ -8420,31 +8420,31 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="D194" t="n">
-        <v>0.005831817048601806</v>
+        <v>0.006699577206745744</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1862431250046939</v>
+        <v>0.203135097050108</v>
       </c>
       <c r="F194" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06041083345189691</v>
+        <v>0.06731727835722268</v>
       </c>
       <c r="H194" t="n">
-        <v>0.05819356394931674</v>
+        <v>0.06660792813636363</v>
       </c>
       <c r="I194" t="n">
-        <v>0.03504458582028747</v>
+        <v>0.03544319386128336</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02353084087371826</v>
+        <v>0.02302348811645061</v>
       </c>
       <c r="K194" t="n">
-        <v>0.002399519202299416</v>
+        <v>0.002722968347370625</v>
       </c>
     </row>
     <row r="195">
@@ -8455,31 +8455,31 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3649</v>
+        <v>4026</v>
       </c>
       <c r="D195" t="n">
-        <v>1.081387852085754</v>
+        <v>1.25029224762693</v>
       </c>
       <c r="E195" t="n">
-        <v>1.780937016941607</v>
+        <v>1.996407337952405</v>
       </c>
       <c r="F195" t="n">
-        <v>3649</v>
+        <v>4026</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1864152746275067</v>
+        <v>0.2030423453543335</v>
       </c>
       <c r="H195" t="n">
-        <v>1.254720434662886</v>
+        <v>1.442282510222867</v>
       </c>
       <c r="I195" t="n">
-        <v>0.1876428305404261</v>
+        <v>0.1994594633579254</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1254676713142544</v>
+        <v>0.1212073466740549</v>
       </c>
       <c r="K195" t="n">
-        <v>0.006833210703916848</v>
+        <v>0.00759312801528722</v>
       </c>
     </row>
     <row r="196">
@@ -8490,31 +8490,31 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3807136118412018</v>
+        <v>0.4516998693579808</v>
       </c>
       <c r="E196" t="n">
-        <v>0.6893091150559485</v>
+        <v>0.7750805760733783</v>
       </c>
       <c r="F196" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="G196" t="n">
-        <v>0.07600266672670841</v>
+        <v>0.08515084127429873</v>
       </c>
       <c r="H196" t="n">
-        <v>0.4461216691415757</v>
+        <v>0.5262242616154253</v>
       </c>
       <c r="I196" t="n">
-        <v>0.04005985567346215</v>
+        <v>0.03987507976125926</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1174070751294494</v>
+        <v>0.1125304783927277</v>
       </c>
       <c r="K196" t="n">
-        <v>0.002526128548197448</v>
+        <v>0.002803848939947784</v>
       </c>
     </row>
     <row r="197">
@@ -8525,31 +8525,31 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2228</v>
+        <v>2513</v>
       </c>
       <c r="D197" t="n">
-        <v>0.01018331374507397</v>
+        <v>0.01159230701159686</v>
       </c>
       <c r="E197" t="n">
-        <v>0.4983843669760972</v>
+        <v>0.550144701031968</v>
       </c>
       <c r="F197" t="n">
-        <v>2228</v>
+        <v>2513</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1733935489319265</v>
+        <v>0.1950319427996874</v>
       </c>
       <c r="H197" t="n">
-        <v>0.1085157559718937</v>
+        <v>0.1213284452678636</v>
       </c>
       <c r="I197" t="n">
-        <v>0.1717692974489182</v>
+        <v>0.1858093397459015</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02832651685457677</v>
+        <v>0.02944001264404505</v>
       </c>
       <c r="K197" t="n">
-        <v>0.004610845120623708</v>
+        <v>0.00488569017034024</v>
       </c>
     </row>
     <row r="198">
@@ -8560,31 +8560,31 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>7718</v>
+        <v>7710</v>
       </c>
       <c r="D198" t="n">
-        <v>2.019857427221723</v>
+        <v>2.184767462080345</v>
       </c>
       <c r="E198" t="n">
-        <v>4.657367587089539</v>
+        <v>4.650480868993327</v>
       </c>
       <c r="F198" t="n">
-        <v>7718</v>
+        <v>7710</v>
       </c>
       <c r="G198" t="n">
-        <v>0.6531050115590915</v>
+        <v>0.6512766174273565</v>
       </c>
       <c r="H198" t="n">
-        <v>2.445440849289298</v>
+        <v>2.605059223133139</v>
       </c>
       <c r="I198" t="n">
-        <v>1.07894038897939</v>
+        <v>1.011521020554937</v>
       </c>
       <c r="J198" t="n">
-        <v>0.4189191455952823</v>
+        <v>0.3208025968633592</v>
       </c>
       <c r="K198" t="n">
-        <v>0.01695489487610757</v>
+        <v>0.01623509370256215</v>
       </c>
     </row>
     <row r="199">
@@ -8595,31 +8595,31 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2228</v>
+        <v>2513</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5915002570254728</v>
+        <v>0.6792096525896341</v>
       </c>
       <c r="E199" t="n">
-        <v>1.550231546978466</v>
+        <v>1.505510629969649</v>
       </c>
       <c r="F199" t="n">
-        <v>2228</v>
+        <v>2513</v>
       </c>
       <c r="G199" t="n">
-        <v>0.3897605920210481</v>
+        <v>0.2559702161233872</v>
       </c>
       <c r="H199" t="n">
-        <v>0.7139949888223782</v>
+        <v>0.816945968545042</v>
       </c>
       <c r="I199" t="n">
-        <v>0.2066525624832138</v>
+        <v>0.2206444406183437</v>
       </c>
       <c r="J199" t="n">
-        <v>0.2222565474221483</v>
+        <v>0.1912405684124678</v>
       </c>
       <c r="K199" t="n">
-        <v>0.004843369824811816</v>
+        <v>0.005783728323876858</v>
       </c>
     </row>
     <row r="200">
@@ -8630,31 +8630,31 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9564054094953462</v>
+        <v>1.193431416060776</v>
       </c>
       <c r="E200" t="n">
-        <v>1.413257149979472</v>
+        <v>1.702220492996275</v>
       </c>
       <c r="F200" t="n">
-        <v>1344</v>
+        <v>1540</v>
       </c>
       <c r="G200" t="n">
-        <v>0.07752777775749564</v>
+        <v>0.08680026279762387</v>
       </c>
       <c r="H200" t="n">
-        <v>1.021578377811238</v>
+        <v>1.268135445192456</v>
       </c>
       <c r="I200" t="n">
-        <v>0.04056593228597194</v>
+        <v>0.04092956776730716</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2633834856096655</v>
+        <v>0.2944163159700111</v>
       </c>
       <c r="K200" t="n">
-        <v>0.002682412741705775</v>
+        <v>0.003086823970079422</v>
       </c>
     </row>
     <row r="201">
@@ -8665,11 +8665,11 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>22508</v>
+        <v>19079</v>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
-        <v>25.21233792114072</v>
+        <v>24.95402143686078</v>
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
@@ -8690,31 +8690,31 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="D202" t="n">
-        <v>0.01009866281878203</v>
+        <v>0.007014396642334759</v>
       </c>
       <c r="E202" t="n">
-        <v>0.237192928288132</v>
+        <v>0.2502350804535672</v>
       </c>
       <c r="F202" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0744191401079297</v>
+        <v>0.07900075978599488</v>
       </c>
       <c r="H202" t="n">
-        <v>0.07803755478933454</v>
+        <v>0.07987530860118568</v>
       </c>
       <c r="I202" t="n">
-        <v>0.04520175013225525</v>
+        <v>0.04213554679881781</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02913678997661918</v>
+        <v>0.03847359286621213</v>
       </c>
       <c r="K202" t="n">
-        <v>0.002758775628171861</v>
+        <v>0.002765639862045646</v>
       </c>
     </row>
     <row r="203">
@@ -8725,31 +8725,31 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3990.12</v>
+        <v>4023.8</v>
       </c>
       <c r="D203" t="n">
-        <v>1.209849102380685</v>
+        <v>1.222893830523826</v>
       </c>
       <c r="E203" t="n">
-        <v>2.034011707799509</v>
+        <v>2.046456466242671</v>
       </c>
       <c r="F203" t="n">
-        <v>3990.12</v>
+        <v>4023.8</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2218764856690541</v>
+        <v>0.22115884647239</v>
       </c>
       <c r="H203" t="n">
-        <v>1.409181564892642</v>
+        <v>1.423480841205455</v>
       </c>
       <c r="I203" t="n">
-        <v>0.2163731360342354</v>
+        <v>0.2153540785983205</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1573290552617982</v>
+        <v>0.1561773835448548</v>
       </c>
       <c r="K203" t="n">
-        <v>0.007529692710377276</v>
+        <v>0.00749732322525233</v>
       </c>
     </row>
     <row r="204">
@@ -8760,31 +8760,31 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4285881557222456</v>
+        <v>0.4419333485467359</v>
       </c>
       <c r="E204" t="n">
-        <v>0.8030361519614234</v>
+        <v>0.813238301416859</v>
       </c>
       <c r="F204" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="G204" t="n">
-        <v>0.08972866686061025</v>
+        <v>0.09604978085029871</v>
       </c>
       <c r="H204" t="n">
-        <v>0.5100648783426732</v>
+        <v>0.5247623245604336</v>
       </c>
       <c r="I204" t="n">
-        <v>0.04257156382314861</v>
+        <v>0.04271190687548369</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1495614041108638</v>
+        <v>0.1381914602546021</v>
       </c>
       <c r="K204" t="n">
-        <v>0.00290074847638607</v>
+        <v>0.00289443020708859</v>
       </c>
     </row>
     <row r="205">
@@ -8795,31 +8795,31 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2526.72</v>
+        <v>2514.16</v>
       </c>
       <c r="D205" t="n">
-        <v>0.01166949898004532</v>
+        <v>0.01183458460960537</v>
       </c>
       <c r="E205" t="n">
-        <v>0.6044673753948883</v>
+        <v>0.5926647438528017</v>
       </c>
       <c r="F205" t="n">
-        <v>2526.72</v>
+        <v>2514.16</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2018064697738737</v>
+        <v>0.201981309838593</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1340209352271631</v>
+        <v>0.1294305002316833</v>
       </c>
       <c r="I205" t="n">
-        <v>0.2184907584730536</v>
+        <v>0.2111706201126799</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0315429805405438</v>
+        <v>0.03132966706994921</v>
       </c>
       <c r="K205" t="n">
-        <v>0.005242882668972016</v>
+        <v>0.005012865476310253</v>
       </c>
     </row>
     <row r="206">
@@ -8830,31 +8830,31 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>8260.879999999999</v>
+        <v>8173.92</v>
       </c>
       <c r="D206" t="n">
-        <v>1.968152563986368</v>
+        <v>1.97404936815612</v>
       </c>
       <c r="E206" t="n">
-        <v>4.755730501790531</v>
+        <v>4.726432574312202</v>
       </c>
       <c r="F206" t="n">
-        <v>8260.879999999999</v>
+        <v>8173.92</v>
       </c>
       <c r="G206" t="n">
-        <v>0.7092611091258004</v>
+        <v>0.7128195403749124</v>
       </c>
       <c r="H206" t="n">
-        <v>2.421781526436098</v>
+        <v>2.418007972575724</v>
       </c>
       <c r="I206" t="n">
-        <v>1.16602395797614</v>
+        <v>1.145455268253572</v>
       </c>
       <c r="J206" t="n">
-        <v>0.3933127784170211</v>
+        <v>0.3839996686624363</v>
       </c>
       <c r="K206" t="n">
-        <v>0.01808583613019437</v>
+        <v>0.01779249740764499</v>
       </c>
     </row>
     <row r="207">
@@ -8865,31 +8865,31 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2526.72</v>
+        <v>2514.16</v>
       </c>
       <c r="D207" t="n">
-        <v>0.6110297803906724</v>
+        <v>0.6370198510214686</v>
       </c>
       <c r="E207" t="n">
-        <v>1.503214798630215</v>
+        <v>1.52866352098994</v>
       </c>
       <c r="F207" t="n">
-        <v>2526.72</v>
+        <v>2514.16</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2647463717125356</v>
+        <v>0.2754356420971453</v>
       </c>
       <c r="H207" t="n">
-        <v>0.7462999203801155</v>
+        <v>0.7717254095524549</v>
       </c>
       <c r="I207" t="n">
-        <v>0.2526663930388168</v>
+        <v>0.2445435045892373</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2196305772056803</v>
+        <v>0.2166834914172068</v>
       </c>
       <c r="K207" t="n">
-        <v>0.00551673352252692</v>
+        <v>0.005549013507552445</v>
       </c>
     </row>
     <row r="208">
@@ -8900,31 +8900,31 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="D208" t="n">
-        <v>1.185933933039196</v>
+        <v>1.224163932739757</v>
       </c>
       <c r="E208" t="n">
-        <v>1.802041803877801</v>
+        <v>1.857087973197922</v>
       </c>
       <c r="F208" t="n">
-        <v>1543.36</v>
+        <v>1564.4</v>
       </c>
       <c r="G208" t="n">
-        <v>0.09645749484654516</v>
+        <v>0.102514971238561</v>
       </c>
       <c r="H208" t="n">
-        <v>1.261885627503507</v>
+        <v>1.301944715152495</v>
       </c>
       <c r="I208" t="n">
-        <v>0.04361127681098878</v>
+        <v>0.0439698263630271</v>
       </c>
       <c r="J208" t="n">
-        <v>0.3883634419739246</v>
+        <v>0.3965217582229525</v>
       </c>
       <c r="K208" t="n">
-        <v>0.00307164438534528</v>
+        <v>0.003108493466861546</v>
       </c>
     </row>
     <row r="209">
@@ -8935,11 +8935,11 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>20684.72</v>
+        <v>20594.4</v>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="n">
-        <v>25.45964766086079</v>
+        <v>25.51779833084438</v>
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
